--- a/table.xlsx
+++ b/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Desktop\Trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A56D0-C915-4883-9BCA-C9C099335CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC9018-732E-49F7-A894-4F2A55AA6833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="5160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1371,6 +1371,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1423,51 +1468,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1837,7 +1837,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H647" sqref="H647"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6:K420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,64 +1885,64 @@
       </c>
     </row>
     <row r="2" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="82" t="s">
+      <c r="E2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="99" t="s">
+      <c r="Q2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="103" t="s">
+      <c r="S2" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="90" t="s">
+      <c r="T2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="92"/>
+      <c r="U2" s="74"/>
       <c r="W2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1956,26 +1956,26 @@
       <c r="AA2" s="15"/>
     </row>
     <row r="3" spans="2:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="75"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="93"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="75"/>
       <c r="W3" s="16">
         <v>2.5</v>
       </c>
@@ -2046,9 +2046,7 @@
       <c r="J6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="44">
-        <v>40</v>
-      </c>
+      <c r="K6" s="44"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="46">
@@ -2092,9 +2090,7 @@
       <c r="J7" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="44">
-        <v>40</v>
-      </c>
+      <c r="K7" s="44"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="46">
@@ -2138,9 +2134,7 @@
       <c r="J8" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="44">
-        <v>40</v>
-      </c>
+      <c r="K8" s="44"/>
       <c r="L8" s="45"/>
       <c r="M8" s="45"/>
       <c r="N8" s="46">
@@ -2155,10 +2149,10 @@
       <c r="U8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AH8" s="94" t="s">
+      <c r="AH8" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AI8" s="94"/>
+      <c r="AI8" s="76"/>
     </row>
     <row r="9" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
@@ -2188,9 +2182,7 @@
       <c r="J9" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="44">
-        <v>40</v>
-      </c>
+      <c r="K9" s="44"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45"/>
       <c r="N9" s="46">
@@ -2240,9 +2232,7 @@
       <c r="J10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="44">
-        <v>40</v>
-      </c>
+      <c r="K10" s="44"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="46">
@@ -2292,9 +2282,7 @@
       <c r="J11" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="44">
-        <v>40</v>
-      </c>
+      <c r="K11" s="44"/>
       <c r="L11" s="45"/>
       <c r="M11" s="45"/>
       <c r="N11" s="46">
@@ -2338,9 +2326,7 @@
       <c r="J12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="44">
-        <v>40</v>
-      </c>
+      <c r="K12" s="44"/>
       <c r="L12" s="45"/>
       <c r="M12" s="45"/>
       <c r="N12" s="46">
@@ -2384,9 +2370,7 @@
       <c r="J13" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="44">
-        <v>40</v>
-      </c>
+      <c r="K13" s="44"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
       <c r="N13" s="46">
@@ -2436,9 +2420,7 @@
       <c r="J14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="44">
-        <v>40</v>
-      </c>
+      <c r="K14" s="44"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
       <c r="N14" s="46">
@@ -2482,9 +2464,7 @@
       <c r="J15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="44">
-        <v>40</v>
-      </c>
+      <c r="K15" s="44"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
       <c r="N15" s="46">
@@ -2528,9 +2508,7 @@
       <c r="J16" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="44">
-        <v>40</v>
-      </c>
+      <c r="K16" s="44"/>
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
       <c r="N16" s="46">
@@ -2574,9 +2552,7 @@
       <c r="J17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="44">
-        <v>40</v>
-      </c>
+      <c r="K17" s="44"/>
       <c r="L17" s="51"/>
       <c r="M17" s="51"/>
       <c r="N17" s="46">
@@ -2620,9 +2596,7 @@
       <c r="J18" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="44">
-        <v>40</v>
-      </c>
+      <c r="K18" s="44"/>
       <c r="L18" s="55"/>
       <c r="M18" s="55"/>
       <c r="N18" s="46">
@@ -2666,9 +2640,7 @@
       <c r="J19" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="44">
-        <v>40</v>
-      </c>
+      <c r="K19" s="44"/>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
       <c r="N19" s="46">
@@ -2712,9 +2684,7 @@
       <c r="J20" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="44">
-        <v>40</v>
-      </c>
+      <c r="K20" s="44"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
       <c r="N20" s="46">
@@ -2758,9 +2728,7 @@
       <c r="J21" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="44">
-        <v>40</v>
-      </c>
+      <c r="K21" s="44"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
       <c r="N21" s="46">
@@ -2804,9 +2772,7 @@
       <c r="J22" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="44">
-        <v>40</v>
-      </c>
+      <c r="K22" s="44"/>
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
       <c r="N22" s="46">
@@ -2850,9 +2816,7 @@
       <c r="J23" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="44">
-        <v>40</v>
-      </c>
+      <c r="K23" s="44"/>
       <c r="L23" s="59"/>
       <c r="M23" s="59"/>
       <c r="N23" s="46">
@@ -2896,9 +2860,7 @@
       <c r="J24" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="44">
-        <v>40</v>
-      </c>
+      <c r="K24" s="44"/>
       <c r="L24" s="59"/>
       <c r="M24" s="59"/>
       <c r="N24" s="46">
@@ -2942,9 +2904,7 @@
       <c r="J25" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="K25" s="44">
-        <v>40</v>
-      </c>
+      <c r="K25" s="44"/>
       <c r="L25" s="59"/>
       <c r="M25" s="59"/>
       <c r="N25" s="46">
@@ -2988,9 +2948,7 @@
       <c r="J26" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="44">
-        <v>40</v>
-      </c>
+      <c r="K26" s="44"/>
       <c r="L26" s="59"/>
       <c r="M26" s="59"/>
       <c r="N26" s="46">
@@ -3034,9 +2992,7 @@
       <c r="J27" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="44">
-        <v>40</v>
-      </c>
+      <c r="K27" s="44"/>
       <c r="L27" s="59"/>
       <c r="M27" s="59"/>
       <c r="N27" s="46">
@@ -3080,9 +3036,7 @@
       <c r="J28" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="44">
-        <v>40</v>
-      </c>
+      <c r="K28" s="44"/>
       <c r="L28" s="63"/>
       <c r="M28" s="63"/>
       <c r="N28" s="46">
@@ -3126,9 +3080,7 @@
       <c r="J29" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="44">
-        <v>40</v>
-      </c>
+      <c r="K29" s="44"/>
       <c r="L29" s="63"/>
       <c r="M29" s="63"/>
       <c r="N29" s="46">
@@ -3172,9 +3124,7 @@
       <c r="J30" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="44">
-        <v>40</v>
-      </c>
+      <c r="K30" s="44"/>
       <c r="L30" s="63"/>
       <c r="M30" s="63"/>
       <c r="N30" s="46">
@@ -3218,9 +3168,7 @@
       <c r="J31" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="44">
-        <v>40</v>
-      </c>
+      <c r="K31" s="44"/>
       <c r="L31" s="63"/>
       <c r="M31" s="63"/>
       <c r="N31" s="46">
@@ -3264,9 +3212,7 @@
       <c r="J32" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="44">
-        <v>40</v>
-      </c>
+      <c r="K32" s="44"/>
       <c r="L32" s="63"/>
       <c r="M32" s="63"/>
       <c r="N32" s="46">
@@ -3310,9 +3256,7 @@
       <c r="J33" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="K33" s="44">
-        <v>40</v>
-      </c>
+      <c r="K33" s="44"/>
       <c r="L33" s="45"/>
       <c r="M33" s="45"/>
       <c r="N33" s="46">
@@ -3356,9 +3300,7 @@
       <c r="J34" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="44">
-        <v>40</v>
-      </c>
+      <c r="K34" s="44"/>
       <c r="L34" s="45"/>
       <c r="M34" s="45"/>
       <c r="N34" s="46">
@@ -3402,9 +3344,7 @@
       <c r="J35" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="44">
-        <v>40</v>
-      </c>
+      <c r="K35" s="44"/>
       <c r="L35" s="45"/>
       <c r="M35" s="45"/>
       <c r="N35" s="46">
@@ -3448,9 +3388,7 @@
       <c r="J36" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K36" s="44">
-        <v>40</v>
-      </c>
+      <c r="K36" s="44"/>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
       <c r="N36" s="46">
@@ -3494,9 +3432,7 @@
       <c r="J37" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K37" s="44">
-        <v>40</v>
-      </c>
+      <c r="K37" s="44"/>
       <c r="L37" s="45"/>
       <c r="M37" s="45"/>
       <c r="N37" s="46">
@@ -3540,9 +3476,7 @@
       <c r="J38" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="44">
-        <v>40</v>
-      </c>
+      <c r="K38" s="44"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
       <c r="N38" s="46">
@@ -3586,9 +3520,7 @@
       <c r="J39" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="K39" s="44">
-        <v>40</v>
-      </c>
+      <c r="K39" s="44"/>
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
       <c r="N39" s="46">
@@ -3632,9 +3564,7 @@
       <c r="J40" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="K40" s="44">
-        <v>40</v>
-      </c>
+      <c r="K40" s="44"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
       <c r="N40" s="46">
@@ -3678,9 +3608,7 @@
       <c r="J41" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="44">
-        <v>40</v>
-      </c>
+      <c r="K41" s="44"/>
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
       <c r="N41" s="46">
@@ -3724,9 +3652,7 @@
       <c r="J42" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="44">
-        <v>40</v>
-      </c>
+      <c r="K42" s="44"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
       <c r="N42" s="46">
@@ -3770,9 +3696,7 @@
       <c r="J43" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="44">
-        <v>40</v>
-      </c>
+      <c r="K43" s="44"/>
       <c r="L43" s="55"/>
       <c r="M43" s="55"/>
       <c r="N43" s="46">
@@ -3816,9 +3740,7 @@
       <c r="J44" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="44">
-        <v>40</v>
-      </c>
+      <c r="K44" s="44"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="46">
@@ -3862,9 +3784,7 @@
       <c r="J45" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="44">
-        <v>40</v>
-      </c>
+      <c r="K45" s="44"/>
       <c r="L45" s="55"/>
       <c r="M45" s="55"/>
       <c r="N45" s="46">
@@ -3908,9 +3828,7 @@
       <c r="J46" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="44">
-        <v>40</v>
-      </c>
+      <c r="K46" s="44"/>
       <c r="L46" s="55"/>
       <c r="M46" s="55"/>
       <c r="N46" s="46">
@@ -3954,9 +3872,7 @@
       <c r="J47" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="K47" s="44">
-        <v>40</v>
-      </c>
+      <c r="K47" s="44"/>
       <c r="L47" s="55"/>
       <c r="M47" s="55"/>
       <c r="N47" s="46">
@@ -4000,9 +3916,7 @@
       <c r="J48" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="K48" s="44">
-        <v>40</v>
-      </c>
+      <c r="K48" s="44"/>
       <c r="L48" s="59"/>
       <c r="M48" s="59"/>
       <c r="N48" s="46">
@@ -4046,9 +3960,7 @@
       <c r="J49" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="K49" s="44">
-        <v>40</v>
-      </c>
+      <c r="K49" s="44"/>
       <c r="L49" s="59"/>
       <c r="M49" s="59"/>
       <c r="N49" s="46">
@@ -4092,9 +4004,7 @@
       <c r="J50" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="K50" s="44">
-        <v>40</v>
-      </c>
+      <c r="K50" s="44"/>
       <c r="L50" s="59"/>
       <c r="M50" s="59"/>
       <c r="N50" s="46">
@@ -4138,9 +4048,7 @@
       <c r="J51" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="K51" s="44">
-        <v>40</v>
-      </c>
+      <c r="K51" s="44"/>
       <c r="L51" s="59"/>
       <c r="M51" s="59"/>
       <c r="N51" s="46">
@@ -4184,9 +4092,7 @@
       <c r="J52" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="K52" s="44">
-        <v>40</v>
-      </c>
+      <c r="K52" s="44"/>
       <c r="L52" s="59"/>
       <c r="M52" s="59"/>
       <c r="N52" s="46">
@@ -4230,9 +4136,7 @@
       <c r="J53" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="44">
-        <v>40</v>
-      </c>
+      <c r="K53" s="44"/>
       <c r="L53" s="63"/>
       <c r="M53" s="63"/>
       <c r="N53" s="46">
@@ -4276,9 +4180,7 @@
       <c r="J54" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K54" s="44">
-        <v>40</v>
-      </c>
+      <c r="K54" s="44"/>
       <c r="L54" s="63"/>
       <c r="M54" s="63"/>
       <c r="N54" s="46">
@@ -4322,9 +4224,7 @@
       <c r="J55" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="44">
-        <v>40</v>
-      </c>
+      <c r="K55" s="44"/>
       <c r="L55" s="63"/>
       <c r="M55" s="63"/>
       <c r="N55" s="46">
@@ -4368,9 +4268,7 @@
       <c r="J56" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K56" s="44">
-        <v>40</v>
-      </c>
+      <c r="K56" s="44"/>
       <c r="L56" s="63"/>
       <c r="M56" s="63"/>
       <c r="N56" s="46">
@@ -4414,9 +4312,7 @@
       <c r="J57" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K57" s="44">
-        <v>40</v>
-      </c>
+      <c r="K57" s="44"/>
       <c r="L57" s="63"/>
       <c r="M57" s="63"/>
       <c r="N57" s="46">
@@ -4460,9 +4356,7 @@
       <c r="J58" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="K58" s="44">
-        <v>40</v>
-      </c>
+      <c r="K58" s="44"/>
       <c r="L58" s="45"/>
       <c r="M58" s="45"/>
       <c r="N58" s="46">
@@ -4509,9 +4403,7 @@
       <c r="J59" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="K59" s="44">
-        <v>40</v>
-      </c>
+      <c r="K59" s="44"/>
       <c r="L59" s="45"/>
       <c r="M59" s="45"/>
       <c r="N59" s="46">
@@ -4558,9 +4450,7 @@
       <c r="J60" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="K60" s="44">
-        <v>40</v>
-      </c>
+      <c r="K60" s="44"/>
       <c r="L60" s="45"/>
       <c r="M60" s="45"/>
       <c r="N60" s="46">
@@ -4611,9 +4501,7 @@
       <c r="J61" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="K61" s="44">
-        <v>40</v>
-      </c>
+      <c r="K61" s="44"/>
       <c r="L61" s="45"/>
       <c r="M61" s="45"/>
       <c r="N61" s="46">
@@ -4664,9 +4552,7 @@
       <c r="J62" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="K62" s="44">
-        <v>40</v>
-      </c>
+      <c r="K62" s="44"/>
       <c r="L62" s="45"/>
       <c r="M62" s="45"/>
       <c r="N62" s="46">
@@ -4717,9 +4603,7 @@
       <c r="J63" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="K63" s="44">
-        <v>40</v>
-      </c>
+      <c r="K63" s="44"/>
       <c r="L63" s="51"/>
       <c r="M63" s="51"/>
       <c r="N63" s="46">
@@ -4770,9 +4654,7 @@
       <c r="J64" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="K64" s="44">
-        <v>40</v>
-      </c>
+      <c r="K64" s="44"/>
       <c r="L64" s="51"/>
       <c r="M64" s="51"/>
       <c r="N64" s="46">
@@ -4823,9 +4705,7 @@
       <c r="J65" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="K65" s="44">
-        <v>40</v>
-      </c>
+      <c r="K65" s="44"/>
       <c r="L65" s="51"/>
       <c r="M65" s="51"/>
       <c r="N65" s="46">
@@ -4876,9 +4756,7 @@
       <c r="J66" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="K66" s="44">
-        <v>40</v>
-      </c>
+      <c r="K66" s="44"/>
       <c r="L66" s="51"/>
       <c r="M66" s="51"/>
       <c r="N66" s="46">
@@ -4929,9 +4807,7 @@
       <c r="J67" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="K67" s="44">
-        <v>40</v>
-      </c>
+      <c r="K67" s="44"/>
       <c r="L67" s="51"/>
       <c r="M67" s="51"/>
       <c r="N67" s="46">
@@ -4978,9 +4854,7 @@
       <c r="J68" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="K68" s="44">
-        <v>40</v>
-      </c>
+      <c r="K68" s="44"/>
       <c r="L68" s="55"/>
       <c r="M68" s="55"/>
       <c r="N68" s="46">
@@ -5027,9 +4901,7 @@
       <c r="J69" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="K69" s="44">
-        <v>40</v>
-      </c>
+      <c r="K69" s="44"/>
       <c r="L69" s="55"/>
       <c r="M69" s="55"/>
       <c r="N69" s="46">
@@ -5076,9 +4948,7 @@
       <c r="J70" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="K70" s="44">
-        <v>40</v>
-      </c>
+      <c r="K70" s="44"/>
       <c r="L70" s="55"/>
       <c r="M70" s="55"/>
       <c r="N70" s="46">
@@ -5127,9 +4997,7 @@
       <c r="J71" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="K71" s="44">
-        <v>40</v>
-      </c>
+      <c r="K71" s="44"/>
       <c r="L71" s="55"/>
       <c r="M71" s="55"/>
       <c r="N71" s="46">
@@ -5178,9 +5046,7 @@
       <c r="J72" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="K72" s="44">
-        <v>40</v>
-      </c>
+      <c r="K72" s="44"/>
       <c r="L72" s="55"/>
       <c r="M72" s="55"/>
       <c r="N72" s="46">
@@ -5229,9 +5095,7 @@
       <c r="J73" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K73" s="44">
-        <v>40</v>
-      </c>
+      <c r="K73" s="44"/>
       <c r="L73" s="59"/>
       <c r="M73" s="59"/>
       <c r="N73" s="46">
@@ -5280,9 +5144,7 @@
       <c r="J74" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="44">
-        <v>40</v>
-      </c>
+      <c r="K74" s="44"/>
       <c r="L74" s="59"/>
       <c r="M74" s="59"/>
       <c r="N74" s="46">
@@ -5331,9 +5193,7 @@
       <c r="J75" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="K75" s="44">
-        <v>40</v>
-      </c>
+      <c r="K75" s="44"/>
       <c r="L75" s="59"/>
       <c r="M75" s="59"/>
       <c r="N75" s="46">
@@ -5382,9 +5242,7 @@
       <c r="J76" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="44">
-        <v>40</v>
-      </c>
+      <c r="K76" s="44"/>
       <c r="L76" s="59"/>
       <c r="M76" s="59"/>
       <c r="N76" s="46">
@@ -5433,9 +5291,7 @@
       <c r="J77" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="K77" s="44">
-        <v>40</v>
-      </c>
+      <c r="K77" s="44"/>
       <c r="L77" s="59"/>
       <c r="M77" s="59"/>
       <c r="N77" s="46">
@@ -5484,9 +5340,7 @@
       <c r="J78" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="K78" s="44">
-        <v>40</v>
-      </c>
+      <c r="K78" s="44"/>
       <c r="L78" s="63"/>
       <c r="M78" s="63"/>
       <c r="N78" s="46">
@@ -5535,9 +5389,7 @@
       <c r="J79" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="K79" s="44">
-        <v>40</v>
-      </c>
+      <c r="K79" s="44"/>
       <c r="L79" s="63"/>
       <c r="M79" s="63"/>
       <c r="N79" s="46">
@@ -5586,9 +5438,7 @@
       <c r="J80" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="K80" s="44">
-        <v>40</v>
-      </c>
+      <c r="K80" s="44"/>
       <c r="L80" s="63"/>
       <c r="M80" s="63"/>
       <c r="N80" s="46">
@@ -5637,9 +5487,7 @@
       <c r="J81" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="K81" s="44">
-        <v>40</v>
-      </c>
+      <c r="K81" s="44"/>
       <c r="L81" s="63"/>
       <c r="M81" s="63"/>
       <c r="N81" s="46">
@@ -5688,9 +5536,7 @@
       <c r="J82" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="K82" s="44">
-        <v>40</v>
-      </c>
+      <c r="K82" s="44"/>
       <c r="L82" s="63"/>
       <c r="M82" s="63"/>
       <c r="N82" s="46">
@@ -5739,9 +5585,7 @@
       <c r="J83" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K83" s="44">
-        <v>40</v>
-      </c>
+      <c r="K83" s="44"/>
       <c r="L83" s="45"/>
       <c r="M83" s="45"/>
       <c r="N83" s="46">
@@ -5790,9 +5634,7 @@
       <c r="J84" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K84" s="44">
-        <v>40</v>
-      </c>
+      <c r="K84" s="44"/>
       <c r="L84" s="45"/>
       <c r="M84" s="45"/>
       <c r="N84" s="46">
@@ -5841,9 +5683,7 @@
       <c r="J85" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K85" s="44">
-        <v>40</v>
-      </c>
+      <c r="K85" s="44"/>
       <c r="L85" s="45"/>
       <c r="M85" s="45"/>
       <c r="N85" s="46">
@@ -5892,9 +5732,7 @@
       <c r="J86" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K86" s="44">
-        <v>40</v>
-      </c>
+      <c r="K86" s="44"/>
       <c r="L86" s="45"/>
       <c r="M86" s="45"/>
       <c r="N86" s="46">
@@ -5938,9 +5776,7 @@
       <c r="J87" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K87" s="44">
-        <v>40</v>
-      </c>
+      <c r="K87" s="44"/>
       <c r="L87" s="45"/>
       <c r="M87" s="45"/>
       <c r="N87" s="46">
@@ -5984,9 +5820,7 @@
       <c r="J88" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K88" s="44">
-        <v>40</v>
-      </c>
+      <c r="K88" s="44"/>
       <c r="L88" s="51"/>
       <c r="M88" s="51"/>
       <c r="N88" s="46">
@@ -6030,9 +5864,7 @@
       <c r="J89" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K89" s="44">
-        <v>40</v>
-      </c>
+      <c r="K89" s="44"/>
       <c r="L89" s="51"/>
       <c r="M89" s="51"/>
       <c r="N89" s="46">
@@ -6076,9 +5908,7 @@
       <c r="J90" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="K90" s="44">
-        <v>40</v>
-      </c>
+      <c r="K90" s="44"/>
       <c r="L90" s="51"/>
       <c r="M90" s="51"/>
       <c r="N90" s="46">
@@ -6122,9 +5952,7 @@
       <c r="J91" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="K91" s="44">
-        <v>40</v>
-      </c>
+      <c r="K91" s="44"/>
       <c r="L91" s="51"/>
       <c r="M91" s="51"/>
       <c r="N91" s="46">
@@ -6168,9 +5996,7 @@
       <c r="J92" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="K92" s="44">
-        <v>40</v>
-      </c>
+      <c r="K92" s="44"/>
       <c r="L92" s="51"/>
       <c r="M92" s="51"/>
       <c r="N92" s="46">
@@ -6214,9 +6040,7 @@
       <c r="J93" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="K93" s="44">
-        <v>40</v>
-      </c>
+      <c r="K93" s="44"/>
       <c r="L93" s="55"/>
       <c r="M93" s="55"/>
       <c r="N93" s="46">
@@ -6260,9 +6084,7 @@
       <c r="J94" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="K94" s="44">
-        <v>40</v>
-      </c>
+      <c r="K94" s="44"/>
       <c r="L94" s="55"/>
       <c r="M94" s="55"/>
       <c r="N94" s="46">
@@ -6306,9 +6128,7 @@
       <c r="J95" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="K95" s="44">
-        <v>40</v>
-      </c>
+      <c r="K95" s="44"/>
       <c r="L95" s="55"/>
       <c r="M95" s="55"/>
       <c r="N95" s="46">
@@ -6352,9 +6172,7 @@
       <c r="J96" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="K96" s="44">
-        <v>40</v>
-      </c>
+      <c r="K96" s="44"/>
       <c r="L96" s="55"/>
       <c r="M96" s="55"/>
       <c r="N96" s="46">
@@ -6398,9 +6216,7 @@
       <c r="J97" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="K97" s="44">
-        <v>40</v>
-      </c>
+      <c r="K97" s="44"/>
       <c r="L97" s="55"/>
       <c r="M97" s="55"/>
       <c r="N97" s="46">
@@ -6444,9 +6260,7 @@
       <c r="J98" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="K98" s="44">
-        <v>40</v>
-      </c>
+      <c r="K98" s="44"/>
       <c r="L98" s="59"/>
       <c r="M98" s="59"/>
       <c r="N98" s="46">
@@ -6490,9 +6304,7 @@
       <c r="J99" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="K99" s="44">
-        <v>40</v>
-      </c>
+      <c r="K99" s="44"/>
       <c r="L99" s="59"/>
       <c r="M99" s="59"/>
       <c r="N99" s="46">
@@ -6536,9 +6348,7 @@
       <c r="J100" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="K100" s="44">
-        <v>40</v>
-      </c>
+      <c r="K100" s="44"/>
       <c r="L100" s="59"/>
       <c r="M100" s="59"/>
       <c r="N100" s="46">
@@ -6582,9 +6392,7 @@
       <c r="J101" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="K101" s="44">
-        <v>40</v>
-      </c>
+      <c r="K101" s="44"/>
       <c r="L101" s="59"/>
       <c r="M101" s="59"/>
       <c r="N101" s="46">
@@ -6628,9 +6436,7 @@
       <c r="J102" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="K102" s="44">
-        <v>40</v>
-      </c>
+      <c r="K102" s="44"/>
       <c r="L102" s="59"/>
       <c r="M102" s="59"/>
       <c r="N102" s="46">
@@ -6674,9 +6480,7 @@
       <c r="J103" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="K103" s="44">
-        <v>40</v>
-      </c>
+      <c r="K103" s="44"/>
       <c r="L103" s="63"/>
       <c r="M103" s="63"/>
       <c r="N103" s="46">
@@ -6720,9 +6524,7 @@
       <c r="J104" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="K104" s="44">
-        <v>40</v>
-      </c>
+      <c r="K104" s="44"/>
       <c r="L104" s="63"/>
       <c r="M104" s="63"/>
       <c r="N104" s="46">
@@ -6766,9 +6568,7 @@
       <c r="J105" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="K105" s="44">
-        <v>40</v>
-      </c>
+      <c r="K105" s="44"/>
       <c r="L105" s="63"/>
       <c r="M105" s="63"/>
       <c r="N105" s="46">
@@ -6812,9 +6612,7 @@
       <c r="J106" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="K106" s="44">
-        <v>40</v>
-      </c>
+      <c r="K106" s="44"/>
       <c r="L106" s="63"/>
       <c r="M106" s="63"/>
       <c r="N106" s="46">
@@ -6858,9 +6656,7 @@
       <c r="J107" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="K107" s="44">
-        <v>40</v>
-      </c>
+      <c r="K107" s="44"/>
       <c r="L107" s="63"/>
       <c r="M107" s="63"/>
       <c r="N107" s="46">
@@ -6904,9 +6700,7 @@
       <c r="J108" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K108" s="44">
-        <v>40</v>
-      </c>
+      <c r="K108" s="44"/>
       <c r="L108" s="45"/>
       <c r="M108" s="45"/>
       <c r="N108" s="46">
@@ -6950,9 +6744,7 @@
       <c r="J109" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="K109" s="44">
-        <v>40</v>
-      </c>
+      <c r="K109" s="44"/>
       <c r="L109" s="45"/>
       <c r="M109" s="45"/>
       <c r="N109" s="46">
@@ -6996,9 +6788,7 @@
       <c r="J110" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="K110" s="44">
-        <v>40</v>
-      </c>
+      <c r="K110" s="44"/>
       <c r="L110" s="45"/>
       <c r="M110" s="45"/>
       <c r="N110" s="46">
@@ -7042,9 +6832,7 @@
       <c r="J111" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="K111" s="44">
-        <v>40</v>
-      </c>
+      <c r="K111" s="44"/>
       <c r="L111" s="45"/>
       <c r="M111" s="45"/>
       <c r="N111" s="46">
@@ -7088,9 +6876,7 @@
       <c r="J112" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="K112" s="44">
-        <v>40</v>
-      </c>
+      <c r="K112" s="44"/>
       <c r="L112" s="45"/>
       <c r="M112" s="45"/>
       <c r="N112" s="46">
@@ -7134,9 +6920,7 @@
       <c r="J113" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="K113" s="44">
-        <v>40</v>
-      </c>
+      <c r="K113" s="44"/>
       <c r="L113" s="51"/>
       <c r="M113" s="51"/>
       <c r="N113" s="46">
@@ -7180,9 +6964,7 @@
       <c r="J114" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="K114" s="44">
-        <v>40</v>
-      </c>
+      <c r="K114" s="44"/>
       <c r="L114" s="51"/>
       <c r="M114" s="51"/>
       <c r="N114" s="46">
@@ -7226,9 +7008,7 @@
       <c r="J115" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="K115" s="44">
-        <v>40</v>
-      </c>
+      <c r="K115" s="44"/>
       <c r="L115" s="51"/>
       <c r="M115" s="51"/>
       <c r="N115" s="46">
@@ -7272,9 +7052,7 @@
       <c r="J116" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="K116" s="44">
-        <v>40</v>
-      </c>
+      <c r="K116" s="44"/>
       <c r="L116" s="51"/>
       <c r="M116" s="51"/>
       <c r="N116" s="46">
@@ -7318,9 +7096,7 @@
       <c r="J117" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="K117" s="44">
-        <v>40</v>
-      </c>
+      <c r="K117" s="44"/>
       <c r="L117" s="51"/>
       <c r="M117" s="51"/>
       <c r="N117" s="46">
@@ -7364,9 +7140,7 @@
       <c r="J118" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="K118" s="44">
-        <v>40</v>
-      </c>
+      <c r="K118" s="44"/>
       <c r="L118" s="55"/>
       <c r="M118" s="55"/>
       <c r="N118" s="46">
@@ -7410,9 +7184,7 @@
       <c r="J119" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K119" s="44">
-        <v>40</v>
-      </c>
+      <c r="K119" s="44"/>
       <c r="L119" s="55"/>
       <c r="M119" s="55"/>
       <c r="N119" s="46">
@@ -7456,9 +7228,7 @@
       <c r="J120" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K120" s="44">
-        <v>40</v>
-      </c>
+      <c r="K120" s="44"/>
       <c r="L120" s="55"/>
       <c r="M120" s="55"/>
       <c r="N120" s="46">
@@ -7502,9 +7272,7 @@
       <c r="J121" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K121" s="44">
-        <v>40</v>
-      </c>
+      <c r="K121" s="44"/>
       <c r="L121" s="55"/>
       <c r="M121" s="55"/>
       <c r="N121" s="46">
@@ -7548,9 +7316,7 @@
       <c r="J122" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K122" s="44">
-        <v>40</v>
-      </c>
+      <c r="K122" s="44"/>
       <c r="L122" s="55"/>
       <c r="M122" s="55"/>
       <c r="N122" s="46">
@@ -7594,9 +7360,7 @@
       <c r="J123" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="K123" s="44">
-        <v>40</v>
-      </c>
+      <c r="K123" s="44"/>
       <c r="L123" s="59"/>
       <c r="M123" s="59"/>
       <c r="N123" s="46">
@@ -7640,9 +7404,7 @@
       <c r="J124" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="K124" s="44">
-        <v>40</v>
-      </c>
+      <c r="K124" s="44"/>
       <c r="L124" s="59"/>
       <c r="M124" s="59"/>
       <c r="N124" s="46">
@@ -7686,9 +7448,7 @@
       <c r="J125" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="K125" s="44">
-        <v>40</v>
-      </c>
+      <c r="K125" s="44"/>
       <c r="L125" s="59"/>
       <c r="M125" s="59"/>
       <c r="N125" s="46">
@@ -7732,9 +7492,7 @@
       <c r="J126" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="K126" s="44">
-        <v>40</v>
-      </c>
+      <c r="K126" s="44"/>
       <c r="L126" s="59"/>
       <c r="M126" s="59"/>
       <c r="N126" s="46">
@@ -7778,9 +7536,7 @@
       <c r="J127" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="K127" s="44">
-        <v>40</v>
-      </c>
+      <c r="K127" s="44"/>
       <c r="L127" s="59"/>
       <c r="M127" s="59"/>
       <c r="N127" s="46">
@@ -7824,9 +7580,7 @@
       <c r="J128" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="K128" s="44">
-        <v>40</v>
-      </c>
+      <c r="K128" s="44"/>
       <c r="L128" s="63"/>
       <c r="M128" s="63"/>
       <c r="N128" s="46">
@@ -7870,9 +7624,7 @@
       <c r="J129" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="K129" s="44">
-        <v>40</v>
-      </c>
+      <c r="K129" s="44"/>
       <c r="L129" s="63"/>
       <c r="M129" s="63"/>
       <c r="N129" s="46">
@@ -7916,9 +7668,7 @@
       <c r="J130" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="K130" s="44">
-        <v>40</v>
-      </c>
+      <c r="K130" s="44"/>
       <c r="L130" s="63"/>
       <c r="M130" s="63"/>
       <c r="N130" s="46">
@@ -7962,9 +7712,7 @@
       <c r="J131" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="K131" s="44">
-        <v>40</v>
-      </c>
+      <c r="K131" s="44"/>
       <c r="L131" s="63"/>
       <c r="M131" s="63"/>
       <c r="N131" s="46">
@@ -8008,9 +7756,7 @@
       <c r="J132" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="K132" s="44">
-        <v>40</v>
-      </c>
+      <c r="K132" s="44"/>
       <c r="L132" s="63"/>
       <c r="M132" s="63"/>
       <c r="N132" s="46">
@@ -8054,9 +7800,7 @@
       <c r="J133" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="K133" s="44">
-        <v>40</v>
-      </c>
+      <c r="K133" s="44"/>
       <c r="L133" s="45"/>
       <c r="M133" s="45"/>
       <c r="N133" s="46">
@@ -8100,9 +7844,7 @@
       <c r="J134" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="K134" s="44">
-        <v>40</v>
-      </c>
+      <c r="K134" s="44"/>
       <c r="L134" s="45"/>
       <c r="M134" s="45"/>
       <c r="N134" s="46">
@@ -8146,9 +7888,7 @@
       <c r="J135" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="K135" s="44">
-        <v>40</v>
-      </c>
+      <c r="K135" s="44"/>
       <c r="L135" s="45"/>
       <c r="M135" s="45"/>
       <c r="N135" s="46">
@@ -8192,9 +7932,7 @@
       <c r="J136" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="K136" s="44">
-        <v>40</v>
-      </c>
+      <c r="K136" s="44"/>
       <c r="L136" s="45"/>
       <c r="M136" s="45"/>
       <c r="N136" s="46">
@@ -8238,9 +7976,7 @@
       <c r="J137" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="K137" s="44">
-        <v>40</v>
-      </c>
+      <c r="K137" s="44"/>
       <c r="L137" s="45"/>
       <c r="M137" s="45"/>
       <c r="N137" s="46">
@@ -8284,9 +8020,7 @@
       <c r="J138" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K138" s="44">
-        <v>40</v>
-      </c>
+      <c r="K138" s="44"/>
       <c r="L138" s="51"/>
       <c r="M138" s="51"/>
       <c r="N138" s="46">
@@ -8330,9 +8064,7 @@
       <c r="J139" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K139" s="44">
-        <v>40</v>
-      </c>
+      <c r="K139" s="44"/>
       <c r="L139" s="51"/>
       <c r="M139" s="51"/>
       <c r="N139" s="46">
@@ -8376,9 +8108,7 @@
       <c r="J140" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K140" s="44">
-        <v>40</v>
-      </c>
+      <c r="K140" s="44"/>
       <c r="L140" s="51"/>
       <c r="M140" s="51"/>
       <c r="N140" s="46">
@@ -8422,9 +8152,7 @@
       <c r="J141" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K141" s="44">
-        <v>40</v>
-      </c>
+      <c r="K141" s="44"/>
       <c r="L141" s="51"/>
       <c r="M141" s="51"/>
       <c r="N141" s="46">
@@ -8468,9 +8196,7 @@
       <c r="J142" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="K142" s="44">
-        <v>40</v>
-      </c>
+      <c r="K142" s="44"/>
       <c r="L142" s="51"/>
       <c r="M142" s="51"/>
       <c r="N142" s="46">
@@ -8514,9 +8240,7 @@
       <c r="J143" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K143" s="44">
-        <v>40</v>
-      </c>
+      <c r="K143" s="44"/>
       <c r="L143" s="55"/>
       <c r="M143" s="55"/>
       <c r="N143" s="46">
@@ -8560,9 +8284,7 @@
       <c r="J144" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K144" s="44">
-        <v>40</v>
-      </c>
+      <c r="K144" s="44"/>
       <c r="L144" s="55"/>
       <c r="M144" s="55"/>
       <c r="N144" s="46">
@@ -8606,9 +8328,7 @@
       <c r="J145" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K145" s="44">
-        <v>40</v>
-      </c>
+      <c r="K145" s="44"/>
       <c r="L145" s="55"/>
       <c r="M145" s="55"/>
       <c r="N145" s="46">
@@ -8652,9 +8372,7 @@
       <c r="J146" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K146" s="44">
-        <v>40</v>
-      </c>
+      <c r="K146" s="44"/>
       <c r="L146" s="55"/>
       <c r="M146" s="55"/>
       <c r="N146" s="46">
@@ -8698,9 +8416,7 @@
       <c r="J147" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K147" s="44">
-        <v>40</v>
-      </c>
+      <c r="K147" s="44"/>
       <c r="L147" s="55"/>
       <c r="M147" s="55"/>
       <c r="N147" s="46">
@@ -8744,9 +8460,7 @@
       <c r="J148" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="K148" s="44">
-        <v>40</v>
-      </c>
+      <c r="K148" s="44"/>
       <c r="L148" s="59"/>
       <c r="M148" s="59"/>
       <c r="N148" s="46">
@@ -8790,9 +8504,7 @@
       <c r="J149" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="K149" s="44">
-        <v>40</v>
-      </c>
+      <c r="K149" s="44"/>
       <c r="L149" s="59"/>
       <c r="M149" s="59"/>
       <c r="N149" s="46">
@@ -8836,9 +8548,7 @@
       <c r="J150" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K150" s="44">
-        <v>40</v>
-      </c>
+      <c r="K150" s="44"/>
       <c r="L150" s="59"/>
       <c r="M150" s="59"/>
       <c r="N150" s="46">
@@ -8882,9 +8592,7 @@
       <c r="J151" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K151" s="44">
-        <v>40</v>
-      </c>
+      <c r="K151" s="44"/>
       <c r="L151" s="59"/>
       <c r="M151" s="59"/>
       <c r="N151" s="46">
@@ -8928,9 +8636,7 @@
       <c r="J152" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K152" s="44">
-        <v>40</v>
-      </c>
+      <c r="K152" s="44"/>
       <c r="L152" s="59"/>
       <c r="M152" s="59"/>
       <c r="N152" s="46">
@@ -8974,9 +8680,7 @@
       <c r="J153" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="K153" s="44">
-        <v>40</v>
-      </c>
+      <c r="K153" s="44"/>
       <c r="L153" s="63"/>
       <c r="M153" s="63"/>
       <c r="N153" s="46">
@@ -9020,9 +8724,7 @@
       <c r="J154" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="K154" s="44">
-        <v>40</v>
-      </c>
+      <c r="K154" s="44"/>
       <c r="L154" s="63"/>
       <c r="M154" s="63"/>
       <c r="N154" s="46">
@@ -9066,9 +8768,7 @@
       <c r="J155" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="K155" s="44">
-        <v>40</v>
-      </c>
+      <c r="K155" s="44"/>
       <c r="L155" s="63"/>
       <c r="M155" s="63"/>
       <c r="N155" s="46">
@@ -9112,9 +8812,7 @@
       <c r="J156" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="K156" s="44">
-        <v>40</v>
-      </c>
+      <c r="K156" s="44"/>
       <c r="L156" s="63"/>
       <c r="M156" s="63"/>
       <c r="N156" s="46">
@@ -9158,9 +8856,7 @@
       <c r="J157" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="K157" s="44">
-        <v>40</v>
-      </c>
+      <c r="K157" s="44"/>
       <c r="L157" s="63"/>
       <c r="M157" s="63"/>
       <c r="N157" s="46">
@@ -9204,9 +8900,7 @@
       <c r="J158" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K158" s="44">
-        <v>40</v>
-      </c>
+      <c r="K158" s="44"/>
       <c r="L158" s="35"/>
       <c r="M158" s="35"/>
       <c r="N158" s="46">
@@ -9250,9 +8944,7 @@
       <c r="J159" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="K159" s="44">
-        <v>40</v>
-      </c>
+      <c r="K159" s="44"/>
       <c r="L159" s="40"/>
       <c r="M159" s="40"/>
       <c r="N159" s="46">
@@ -9296,9 +8988,7 @@
       <c r="J160" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K160" s="44">
-        <v>40</v>
-      </c>
+      <c r="K160" s="44"/>
       <c r="L160" s="45"/>
       <c r="M160" s="45"/>
       <c r="N160" s="46">
@@ -9342,9 +9032,7 @@
       <c r="J161" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K161" s="44">
-        <v>40</v>
-      </c>
+      <c r="K161" s="44"/>
       <c r="L161" s="45"/>
       <c r="M161" s="45"/>
       <c r="N161" s="46">
@@ -9388,9 +9076,7 @@
       <c r="J162" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K162" s="44">
-        <v>40</v>
-      </c>
+      <c r="K162" s="44"/>
       <c r="L162" s="45"/>
       <c r="M162" s="45"/>
       <c r="N162" s="46">
@@ -9434,9 +9120,7 @@
       <c r="J163" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K163" s="44">
-        <v>40</v>
-      </c>
+      <c r="K163" s="44"/>
       <c r="L163" s="45"/>
       <c r="M163" s="45"/>
       <c r="N163" s="46">
@@ -9480,9 +9164,7 @@
       <c r="J164" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K164" s="44">
-        <v>40</v>
-      </c>
+      <c r="K164" s="44"/>
       <c r="L164" s="45"/>
       <c r="M164" s="45"/>
       <c r="N164" s="46">
@@ -9526,9 +9208,7 @@
       <c r="J165" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="K165" s="44">
-        <v>40</v>
-      </c>
+      <c r="K165" s="44"/>
       <c r="L165" s="51"/>
       <c r="M165" s="51"/>
       <c r="N165" s="46">
@@ -9572,9 +9252,7 @@
       <c r="J166" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="K166" s="44">
-        <v>40</v>
-      </c>
+      <c r="K166" s="44"/>
       <c r="L166" s="51"/>
       <c r="M166" s="51"/>
       <c r="N166" s="46">
@@ -9618,9 +9296,7 @@
       <c r="J167" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K167" s="44">
-        <v>40</v>
-      </c>
+      <c r="K167" s="44"/>
       <c r="L167" s="51"/>
       <c r="M167" s="51"/>
       <c r="N167" s="46">
@@ -9664,9 +9340,7 @@
       <c r="J168" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K168" s="44">
-        <v>40</v>
-      </c>
+      <c r="K168" s="44"/>
       <c r="L168" s="51"/>
       <c r="M168" s="51"/>
       <c r="N168" s="46">
@@ -9710,9 +9384,7 @@
       <c r="J169" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K169" s="44">
-        <v>40</v>
-      </c>
+      <c r="K169" s="44"/>
       <c r="L169" s="51"/>
       <c r="M169" s="51"/>
       <c r="N169" s="46">
@@ -9756,9 +9428,7 @@
       <c r="J170" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="K170" s="44">
-        <v>40</v>
-      </c>
+      <c r="K170" s="44"/>
       <c r="L170" s="55"/>
       <c r="M170" s="55"/>
       <c r="N170" s="46">
@@ -9802,9 +9472,7 @@
       <c r="J171" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="K171" s="44">
-        <v>40</v>
-      </c>
+      <c r="K171" s="44"/>
       <c r="L171" s="55"/>
       <c r="M171" s="55"/>
       <c r="N171" s="46">
@@ -9848,9 +9516,7 @@
       <c r="J172" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="K172" s="44">
-        <v>40</v>
-      </c>
+      <c r="K172" s="44"/>
       <c r="L172" s="55"/>
       <c r="M172" s="55"/>
       <c r="N172" s="46">
@@ -9894,9 +9560,7 @@
       <c r="J173" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="K173" s="44">
-        <v>40</v>
-      </c>
+      <c r="K173" s="44"/>
       <c r="L173" s="55"/>
       <c r="M173" s="55"/>
       <c r="N173" s="46">
@@ -9940,9 +9604,7 @@
       <c r="J174" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="K174" s="44">
-        <v>40</v>
-      </c>
+      <c r="K174" s="44"/>
       <c r="L174" s="55"/>
       <c r="M174" s="55"/>
       <c r="N174" s="46">
@@ -9986,9 +9648,7 @@
       <c r="J175" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="K175" s="44">
-        <v>40</v>
-      </c>
+      <c r="K175" s="44"/>
       <c r="L175" s="59"/>
       <c r="M175" s="59"/>
       <c r="N175" s="46">
@@ -10032,9 +9692,7 @@
       <c r="J176" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="K176" s="44">
-        <v>40</v>
-      </c>
+      <c r="K176" s="44"/>
       <c r="L176" s="59"/>
       <c r="M176" s="59"/>
       <c r="N176" s="46">
@@ -10078,9 +9736,7 @@
       <c r="J177" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="K177" s="44">
-        <v>40</v>
-      </c>
+      <c r="K177" s="44"/>
       <c r="L177" s="59"/>
       <c r="M177" s="59"/>
       <c r="N177" s="46">
@@ -10124,9 +9780,7 @@
       <c r="J178" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="K178" s="44">
-        <v>40</v>
-      </c>
+      <c r="K178" s="44"/>
       <c r="L178" s="59"/>
       <c r="M178" s="59"/>
       <c r="N178" s="46">
@@ -10170,9 +9824,7 @@
       <c r="J179" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="K179" s="44">
-        <v>40</v>
-      </c>
+      <c r="K179" s="44"/>
       <c r="L179" s="59"/>
       <c r="M179" s="59"/>
       <c r="N179" s="46">
@@ -10216,9 +9868,7 @@
       <c r="J180" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K180" s="44">
-        <v>40</v>
-      </c>
+      <c r="K180" s="44"/>
       <c r="L180" s="63"/>
       <c r="M180" s="63"/>
       <c r="N180" s="46">
@@ -10262,9 +9912,7 @@
       <c r="J181" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="K181" s="44">
-        <v>40</v>
-      </c>
+      <c r="K181" s="44"/>
       <c r="L181" s="63"/>
       <c r="M181" s="63"/>
       <c r="N181" s="46">
@@ -10308,9 +9956,7 @@
       <c r="J182" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="K182" s="44">
-        <v>40</v>
-      </c>
+      <c r="K182" s="44"/>
       <c r="L182" s="63"/>
       <c r="M182" s="63"/>
       <c r="N182" s="46">
@@ -10354,9 +10000,7 @@
       <c r="J183" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="K183" s="44">
-        <v>40</v>
-      </c>
+      <c r="K183" s="44"/>
       <c r="L183" s="63"/>
       <c r="M183" s="63"/>
       <c r="N183" s="46">
@@ -10400,9 +10044,7 @@
       <c r="J184" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="K184" s="44">
-        <v>40</v>
-      </c>
+      <c r="K184" s="44"/>
       <c r="L184" s="63"/>
       <c r="M184" s="63"/>
       <c r="N184" s="46">
@@ -10446,9 +10088,7 @@
       <c r="J185" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K185" s="44">
-        <v>40</v>
-      </c>
+      <c r="K185" s="44"/>
       <c r="L185" s="45"/>
       <c r="M185" s="45"/>
       <c r="N185" s="46">
@@ -10492,9 +10132,7 @@
       <c r="J186" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K186" s="44">
-        <v>40</v>
-      </c>
+      <c r="K186" s="44"/>
       <c r="L186" s="45"/>
       <c r="M186" s="45"/>
       <c r="N186" s="46">
@@ -10538,9 +10176,7 @@
       <c r="J187" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K187" s="44">
-        <v>40</v>
-      </c>
+      <c r="K187" s="44"/>
       <c r="L187" s="45"/>
       <c r="M187" s="45"/>
       <c r="N187" s="46">
@@ -10584,9 +10220,7 @@
       <c r="J188" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K188" s="44">
-        <v>40</v>
-      </c>
+      <c r="K188" s="44"/>
       <c r="L188" s="45"/>
       <c r="M188" s="45"/>
       <c r="N188" s="46">
@@ -10630,9 +10264,7 @@
       <c r="J189" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="K189" s="44">
-        <v>40</v>
-      </c>
+      <c r="K189" s="44"/>
       <c r="L189" s="45"/>
       <c r="M189" s="45"/>
       <c r="N189" s="46">
@@ -10676,9 +10308,7 @@
       <c r="J190" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="K190" s="44">
-        <v>40</v>
-      </c>
+      <c r="K190" s="44"/>
       <c r="L190" s="51"/>
       <c r="M190" s="51"/>
       <c r="N190" s="46">
@@ -10722,9 +10352,7 @@
       <c r="J191" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="K191" s="44">
-        <v>40</v>
-      </c>
+      <c r="K191" s="44"/>
       <c r="L191" s="51"/>
       <c r="M191" s="51"/>
       <c r="N191" s="46">
@@ -10768,9 +10396,7 @@
       <c r="J192" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="K192" s="44">
-        <v>40</v>
-      </c>
+      <c r="K192" s="44"/>
       <c r="L192" s="51"/>
       <c r="M192" s="51"/>
       <c r="N192" s="46">
@@ -10814,9 +10440,7 @@
       <c r="J193" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="K193" s="44">
-        <v>40</v>
-      </c>
+      <c r="K193" s="44"/>
       <c r="L193" s="51"/>
       <c r="M193" s="51"/>
       <c r="N193" s="46">
@@ -10860,9 +10484,7 @@
       <c r="J194" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="K194" s="44">
-        <v>40</v>
-      </c>
+      <c r="K194" s="44"/>
       <c r="L194" s="51"/>
       <c r="M194" s="51"/>
       <c r="N194" s="46">
@@ -10906,9 +10528,7 @@
       <c r="J195" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="K195" s="44">
-        <v>40</v>
-      </c>
+      <c r="K195" s="44"/>
       <c r="L195" s="55"/>
       <c r="M195" s="55"/>
       <c r="N195" s="46">
@@ -10952,9 +10572,7 @@
       <c r="J196" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="K196" s="44">
-        <v>40</v>
-      </c>
+      <c r="K196" s="44"/>
       <c r="L196" s="55"/>
       <c r="M196" s="55"/>
       <c r="N196" s="46">
@@ -10998,9 +10616,7 @@
       <c r="J197" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="K197" s="44">
-        <v>40</v>
-      </c>
+      <c r="K197" s="44"/>
       <c r="L197" s="55"/>
       <c r="M197" s="55"/>
       <c r="N197" s="46">
@@ -11044,9 +10660,7 @@
       <c r="J198" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="K198" s="44">
-        <v>40</v>
-      </c>
+      <c r="K198" s="44"/>
       <c r="L198" s="55"/>
       <c r="M198" s="55"/>
       <c r="N198" s="46">
@@ -11090,9 +10704,7 @@
       <c r="J199" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="K199" s="44">
-        <v>40</v>
-      </c>
+      <c r="K199" s="44"/>
       <c r="L199" s="55"/>
       <c r="M199" s="55"/>
       <c r="N199" s="46">
@@ -11136,9 +10748,7 @@
       <c r="J200" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K200" s="44">
-        <v>40</v>
-      </c>
+      <c r="K200" s="44"/>
       <c r="L200" s="59"/>
       <c r="M200" s="59"/>
       <c r="N200" s="46">
@@ -11182,9 +10792,7 @@
       <c r="J201" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K201" s="44">
-        <v>40</v>
-      </c>
+      <c r="K201" s="44"/>
       <c r="L201" s="59"/>
       <c r="M201" s="59"/>
       <c r="N201" s="46">
@@ -11228,9 +10836,7 @@
       <c r="J202" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K202" s="44">
-        <v>40</v>
-      </c>
+      <c r="K202" s="44"/>
       <c r="L202" s="59"/>
       <c r="M202" s="59"/>
       <c r="N202" s="46">
@@ -11274,9 +10880,7 @@
       <c r="J203" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="K203" s="44">
-        <v>40</v>
-      </c>
+      <c r="K203" s="44"/>
       <c r="L203" s="59"/>
       <c r="M203" s="59"/>
       <c r="N203" s="46">
@@ -11320,9 +10924,7 @@
       <c r="J204" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="K204" s="44">
-        <v>40</v>
-      </c>
+      <c r="K204" s="44"/>
       <c r="L204" s="59"/>
       <c r="M204" s="59"/>
       <c r="N204" s="46">
@@ -11366,9 +10968,7 @@
       <c r="J205" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="K205" s="44">
-        <v>40</v>
-      </c>
+      <c r="K205" s="44"/>
       <c r="L205" s="63"/>
       <c r="M205" s="63"/>
       <c r="N205" s="46">
@@ -11412,9 +11012,7 @@
       <c r="J206" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="K206" s="44">
-        <v>40</v>
-      </c>
+      <c r="K206" s="44"/>
       <c r="L206" s="63"/>
       <c r="M206" s="63"/>
       <c r="N206" s="46">
@@ -11458,9 +11056,7 @@
       <c r="J207" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="K207" s="44">
-        <v>40</v>
-      </c>
+      <c r="K207" s="44"/>
       <c r="L207" s="63"/>
       <c r="M207" s="63"/>
       <c r="N207" s="46">
@@ -11504,9 +11100,7 @@
       <c r="J208" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="K208" s="44">
-        <v>40</v>
-      </c>
+      <c r="K208" s="44"/>
       <c r="L208" s="63"/>
       <c r="M208" s="63"/>
       <c r="N208" s="46">
@@ -11550,9 +11144,7 @@
       <c r="J209" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="K209" s="44">
-        <v>40</v>
-      </c>
+      <c r="K209" s="44"/>
       <c r="L209" s="63"/>
       <c r="M209" s="63"/>
       <c r="N209" s="46">
@@ -11596,9 +11188,7 @@
       <c r="J210" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="K210" s="44">
-        <v>40</v>
-      </c>
+      <c r="K210" s="44"/>
       <c r="L210" s="45"/>
       <c r="M210" s="45"/>
       <c r="N210" s="46">
@@ -11642,9 +11232,7 @@
       <c r="J211" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="K211" s="44">
-        <v>40</v>
-      </c>
+      <c r="K211" s="44"/>
       <c r="L211" s="45"/>
       <c r="M211" s="45"/>
       <c r="N211" s="46">
@@ -11688,9 +11276,7 @@
       <c r="J212" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="K212" s="44">
-        <v>40</v>
-      </c>
+      <c r="K212" s="44"/>
       <c r="L212" s="45"/>
       <c r="M212" s="45"/>
       <c r="N212" s="46">
@@ -11734,9 +11320,7 @@
       <c r="J213" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="K213" s="44">
-        <v>40</v>
-      </c>
+      <c r="K213" s="44"/>
       <c r="L213" s="45"/>
       <c r="M213" s="45"/>
       <c r="N213" s="46">
@@ -11780,9 +11364,7 @@
       <c r="J214" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="K214" s="44">
-        <v>40</v>
-      </c>
+      <c r="K214" s="44"/>
       <c r="L214" s="45"/>
       <c r="M214" s="45"/>
       <c r="N214" s="46">
@@ -11826,9 +11408,7 @@
       <c r="J215" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K215" s="44">
-        <v>40</v>
-      </c>
+      <c r="K215" s="44"/>
       <c r="L215" s="51"/>
       <c r="M215" s="51"/>
       <c r="N215" s="46">
@@ -11872,9 +11452,7 @@
       <c r="J216" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K216" s="44">
-        <v>40</v>
-      </c>
+      <c r="K216" s="44"/>
       <c r="L216" s="51"/>
       <c r="M216" s="51"/>
       <c r="N216" s="46">
@@ -11918,9 +11496,7 @@
       <c r="J217" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K217" s="44">
-        <v>40</v>
-      </c>
+      <c r="K217" s="44"/>
       <c r="L217" s="51"/>
       <c r="M217" s="51"/>
       <c r="N217" s="46">
@@ -11964,9 +11540,7 @@
       <c r="J218" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="K218" s="44">
-        <v>40</v>
-      </c>
+      <c r="K218" s="44"/>
       <c r="L218" s="51"/>
       <c r="M218" s="51"/>
       <c r="N218" s="46">
@@ -12010,9 +11584,7 @@
       <c r="J219" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="K219" s="44">
-        <v>40</v>
-      </c>
+      <c r="K219" s="44"/>
       <c r="L219" s="51"/>
       <c r="M219" s="51"/>
       <c r="N219" s="46">
@@ -12056,9 +11628,7 @@
       <c r="J220" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K220" s="44">
-        <v>40</v>
-      </c>
+      <c r="K220" s="44"/>
       <c r="L220" s="55"/>
       <c r="M220" s="55"/>
       <c r="N220" s="46">
@@ -12102,9 +11672,7 @@
       <c r="J221" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K221" s="44">
-        <v>40</v>
-      </c>
+      <c r="K221" s="44"/>
       <c r="L221" s="55"/>
       <c r="M221" s="55"/>
       <c r="N221" s="46">
@@ -12148,9 +11716,7 @@
       <c r="J222" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K222" s="44">
-        <v>40</v>
-      </c>
+      <c r="K222" s="44"/>
       <c r="L222" s="55"/>
       <c r="M222" s="55"/>
       <c r="N222" s="46">
@@ -12194,9 +11760,7 @@
       <c r="J223" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K223" s="44">
-        <v>40</v>
-      </c>
+      <c r="K223" s="44"/>
       <c r="L223" s="55"/>
       <c r="M223" s="55"/>
       <c r="N223" s="46">
@@ -12240,9 +11804,7 @@
       <c r="J224" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K224" s="44">
-        <v>40</v>
-      </c>
+      <c r="K224" s="44"/>
       <c r="L224" s="55"/>
       <c r="M224" s="55"/>
       <c r="N224" s="46">
@@ -12286,9 +11848,7 @@
       <c r="J225" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K225" s="44">
-        <v>40</v>
-      </c>
+      <c r="K225" s="44"/>
       <c r="L225" s="59"/>
       <c r="M225" s="59"/>
       <c r="N225" s="46">
@@ -12332,9 +11892,7 @@
       <c r="J226" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K226" s="44">
-        <v>40</v>
-      </c>
+      <c r="K226" s="44"/>
       <c r="L226" s="59"/>
       <c r="M226" s="59"/>
       <c r="N226" s="46">
@@ -12378,9 +11936,7 @@
       <c r="J227" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K227" s="44">
-        <v>40</v>
-      </c>
+      <c r="K227" s="44"/>
       <c r="L227" s="59"/>
       <c r="M227" s="59"/>
       <c r="N227" s="46">
@@ -12424,9 +11980,7 @@
       <c r="J228" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="K228" s="44">
-        <v>40</v>
-      </c>
+      <c r="K228" s="44"/>
       <c r="L228" s="59"/>
       <c r="M228" s="59"/>
       <c r="N228" s="46">
@@ -12470,9 +12024,7 @@
       <c r="J229" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="K229" s="44">
-        <v>40</v>
-      </c>
+      <c r="K229" s="44"/>
       <c r="L229" s="59"/>
       <c r="M229" s="59"/>
       <c r="N229" s="46">
@@ -12516,9 +12068,7 @@
       <c r="J230" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="K230" s="44">
-        <v>40</v>
-      </c>
+      <c r="K230" s="44"/>
       <c r="L230" s="63"/>
       <c r="M230" s="63"/>
       <c r="N230" s="46">
@@ -12562,9 +12112,7 @@
       <c r="J231" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="K231" s="44">
-        <v>40</v>
-      </c>
+      <c r="K231" s="44"/>
       <c r="L231" s="63"/>
       <c r="M231" s="63"/>
       <c r="N231" s="46">
@@ -12608,9 +12156,7 @@
       <c r="J232" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="K232" s="44">
-        <v>40</v>
-      </c>
+      <c r="K232" s="44"/>
       <c r="L232" s="63"/>
       <c r="M232" s="63"/>
       <c r="N232" s="46">
@@ -12654,9 +12200,7 @@
       <c r="J233" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="K233" s="44">
-        <v>40</v>
-      </c>
+      <c r="K233" s="44"/>
       <c r="L233" s="63"/>
       <c r="M233" s="63"/>
       <c r="N233" s="46">
@@ -12700,9 +12244,7 @@
       <c r="J234" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="K234" s="44">
-        <v>40</v>
-      </c>
+      <c r="K234" s="44"/>
       <c r="L234" s="63"/>
       <c r="M234" s="63"/>
       <c r="N234" s="46">
@@ -12746,9 +12288,7 @@
       <c r="J235" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="K235" s="44">
-        <v>40</v>
-      </c>
+      <c r="K235" s="44"/>
       <c r="L235" s="45"/>
       <c r="M235" s="45"/>
       <c r="N235" s="46">
@@ -12792,9 +12332,7 @@
       <c r="J236" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="K236" s="44">
-        <v>40</v>
-      </c>
+      <c r="K236" s="44"/>
       <c r="L236" s="45"/>
       <c r="M236" s="45"/>
       <c r="N236" s="46">
@@ -12838,9 +12376,7 @@
       <c r="J237" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="K237" s="44">
-        <v>40</v>
-      </c>
+      <c r="K237" s="44"/>
       <c r="L237" s="45"/>
       <c r="M237" s="45"/>
       <c r="N237" s="46">
@@ -12884,9 +12420,7 @@
       <c r="J238" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="K238" s="44">
-        <v>40</v>
-      </c>
+      <c r="K238" s="44"/>
       <c r="L238" s="45"/>
       <c r="M238" s="45"/>
       <c r="N238" s="46">
@@ -12930,9 +12464,7 @@
       <c r="J239" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="K239" s="44">
-        <v>40</v>
-      </c>
+      <c r="K239" s="44"/>
       <c r="L239" s="45"/>
       <c r="M239" s="45"/>
       <c r="N239" s="46">
@@ -12976,9 +12508,7 @@
       <c r="J240" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="K240" s="44">
-        <v>40</v>
-      </c>
+      <c r="K240" s="44"/>
       <c r="L240" s="51"/>
       <c r="M240" s="51"/>
       <c r="N240" s="46">
@@ -13022,9 +12552,7 @@
       <c r="J241" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="K241" s="44">
-        <v>40</v>
-      </c>
+      <c r="K241" s="44"/>
       <c r="L241" s="51"/>
       <c r="M241" s="51"/>
       <c r="N241" s="46">
@@ -13068,9 +12596,7 @@
       <c r="J242" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="K242" s="44">
-        <v>40</v>
-      </c>
+      <c r="K242" s="44"/>
       <c r="L242" s="51"/>
       <c r="M242" s="51"/>
       <c r="N242" s="46">
@@ -13114,9 +12640,7 @@
       <c r="J243" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="K243" s="44">
-        <v>40</v>
-      </c>
+      <c r="K243" s="44"/>
       <c r="L243" s="51"/>
       <c r="M243" s="51"/>
       <c r="N243" s="46">
@@ -13160,9 +12684,7 @@
       <c r="J244" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="K244" s="44">
-        <v>40</v>
-      </c>
+      <c r="K244" s="44"/>
       <c r="L244" s="51"/>
       <c r="M244" s="51"/>
       <c r="N244" s="46">
@@ -13206,9 +12728,7 @@
       <c r="J245" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="K245" s="44">
-        <v>40</v>
-      </c>
+      <c r="K245" s="44"/>
       <c r="L245" s="55"/>
       <c r="M245" s="55"/>
       <c r="N245" s="46">
@@ -13252,9 +12772,7 @@
       <c r="J246" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="K246" s="44">
-        <v>40</v>
-      </c>
+      <c r="K246" s="44"/>
       <c r="L246" s="55"/>
       <c r="M246" s="55"/>
       <c r="N246" s="46">
@@ -13298,9 +12816,7 @@
       <c r="J247" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="K247" s="44">
-        <v>40</v>
-      </c>
+      <c r="K247" s="44"/>
       <c r="L247" s="55"/>
       <c r="M247" s="55"/>
       <c r="N247" s="46">
@@ -13344,9 +12860,7 @@
       <c r="J248" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="K248" s="44">
-        <v>40</v>
-      </c>
+      <c r="K248" s="44"/>
       <c r="L248" s="55"/>
       <c r="M248" s="55"/>
       <c r="N248" s="46">
@@ -13390,9 +12904,7 @@
       <c r="J249" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="K249" s="44">
-        <v>40</v>
-      </c>
+      <c r="K249" s="44"/>
       <c r="L249" s="55"/>
       <c r="M249" s="55"/>
       <c r="N249" s="46">
@@ -13436,9 +12948,7 @@
       <c r="J250" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="K250" s="44">
-        <v>40</v>
-      </c>
+      <c r="K250" s="44"/>
       <c r="L250" s="59"/>
       <c r="M250" s="59"/>
       <c r="N250" s="46">
@@ -13482,9 +12992,7 @@
       <c r="J251" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="K251" s="44">
-        <v>40</v>
-      </c>
+      <c r="K251" s="44"/>
       <c r="L251" s="59"/>
       <c r="M251" s="59"/>
       <c r="N251" s="46">
@@ -13528,9 +13036,7 @@
       <c r="J252" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="K252" s="44">
-        <v>40</v>
-      </c>
+      <c r="K252" s="44"/>
       <c r="L252" s="59"/>
       <c r="M252" s="59"/>
       <c r="N252" s="46">
@@ -13574,9 +13080,7 @@
       <c r="J253" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="K253" s="44">
-        <v>40</v>
-      </c>
+      <c r="K253" s="44"/>
       <c r="L253" s="59"/>
       <c r="M253" s="59"/>
       <c r="N253" s="46">
@@ -13620,9 +13124,7 @@
       <c r="J254" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="K254" s="44">
-        <v>40</v>
-      </c>
+      <c r="K254" s="44"/>
       <c r="L254" s="59"/>
       <c r="M254" s="59"/>
       <c r="N254" s="46">
@@ -13666,9 +13168,7 @@
       <c r="J255" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="K255" s="44">
-        <v>40</v>
-      </c>
+      <c r="K255" s="44"/>
       <c r="L255" s="63"/>
       <c r="M255" s="63"/>
       <c r="N255" s="46">
@@ -13712,9 +13212,7 @@
       <c r="J256" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="K256" s="44">
-        <v>40</v>
-      </c>
+      <c r="K256" s="44"/>
       <c r="L256" s="63"/>
       <c r="M256" s="63"/>
       <c r="N256" s="46">
@@ -13758,9 +13256,7 @@
       <c r="J257" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="K257" s="44">
-        <v>40</v>
-      </c>
+      <c r="K257" s="44"/>
       <c r="L257" s="63"/>
       <c r="M257" s="63"/>
       <c r="N257" s="46">
@@ -13804,9 +13300,7 @@
       <c r="J258" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="K258" s="44">
-        <v>40</v>
-      </c>
+      <c r="K258" s="44"/>
       <c r="L258" s="63"/>
       <c r="M258" s="63"/>
       <c r="N258" s="46">
@@ -13850,9 +13344,7 @@
       <c r="J259" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="K259" s="44">
-        <v>40</v>
-      </c>
+      <c r="K259" s="44"/>
       <c r="L259" s="63"/>
       <c r="M259" s="63"/>
       <c r="N259" s="46">
@@ -13896,9 +13388,7 @@
       <c r="J260" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K260" s="44">
-        <v>40</v>
-      </c>
+      <c r="K260" s="44"/>
       <c r="L260" s="45"/>
       <c r="M260" s="45"/>
       <c r="N260" s="46">
@@ -13942,9 +13432,7 @@
       <c r="J261" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K261" s="44">
-        <v>40</v>
-      </c>
+      <c r="K261" s="44"/>
       <c r="L261" s="45"/>
       <c r="M261" s="45"/>
       <c r="N261" s="46">
@@ -13988,9 +13476,7 @@
       <c r="J262" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K262" s="44">
-        <v>40</v>
-      </c>
+      <c r="K262" s="44"/>
       <c r="L262" s="45"/>
       <c r="M262" s="45"/>
       <c r="N262" s="46">
@@ -14034,9 +13520,7 @@
       <c r="J263" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K263" s="44">
-        <v>40</v>
-      </c>
+      <c r="K263" s="44"/>
       <c r="L263" s="45"/>
       <c r="M263" s="45"/>
       <c r="N263" s="46">
@@ -14080,9 +13564,7 @@
       <c r="J264" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K264" s="44">
-        <v>40</v>
-      </c>
+      <c r="K264" s="44"/>
       <c r="L264" s="45"/>
       <c r="M264" s="45"/>
       <c r="N264" s="46">
@@ -14126,9 +13608,7 @@
       <c r="J265" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="K265" s="44">
-        <v>40</v>
-      </c>
+      <c r="K265" s="44"/>
       <c r="L265" s="51"/>
       <c r="M265" s="51"/>
       <c r="N265" s="46">
@@ -14172,9 +13652,7 @@
       <c r="J266" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="K266" s="44">
-        <v>40</v>
-      </c>
+      <c r="K266" s="44"/>
       <c r="L266" s="51"/>
       <c r="M266" s="51"/>
       <c r="N266" s="46">
@@ -14218,9 +13696,7 @@
       <c r="J267" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="K267" s="44">
-        <v>40</v>
-      </c>
+      <c r="K267" s="44"/>
       <c r="L267" s="51"/>
       <c r="M267" s="51"/>
       <c r="N267" s="46">
@@ -14264,9 +13740,7 @@
       <c r="J268" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="K268" s="44">
-        <v>40</v>
-      </c>
+      <c r="K268" s="44"/>
       <c r="L268" s="51"/>
       <c r="M268" s="51"/>
       <c r="N268" s="46">
@@ -14310,9 +13784,7 @@
       <c r="J269" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="K269" s="44">
-        <v>40</v>
-      </c>
+      <c r="K269" s="44"/>
       <c r="L269" s="51"/>
       <c r="M269" s="51"/>
       <c r="N269" s="46">
@@ -14356,9 +13828,7 @@
       <c r="J270" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="K270" s="44">
-        <v>40</v>
-      </c>
+      <c r="K270" s="44"/>
       <c r="L270" s="55"/>
       <c r="M270" s="55"/>
       <c r="N270" s="46">
@@ -14402,9 +13872,7 @@
       <c r="J271" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="K271" s="44">
-        <v>40</v>
-      </c>
+      <c r="K271" s="44"/>
       <c r="L271" s="55"/>
       <c r="M271" s="55"/>
       <c r="N271" s="46">
@@ -14448,9 +13916,7 @@
       <c r="J272" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K272" s="44">
-        <v>40</v>
-      </c>
+      <c r="K272" s="44"/>
       <c r="L272" s="55"/>
       <c r="M272" s="55"/>
       <c r="N272" s="46">
@@ -14494,9 +13960,7 @@
       <c r="J273" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K273" s="44">
-        <v>40</v>
-      </c>
+      <c r="K273" s="44"/>
       <c r="L273" s="55"/>
       <c r="M273" s="55"/>
       <c r="N273" s="46">
@@ -14540,9 +14004,7 @@
       <c r="J274" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K274" s="44">
-        <v>40</v>
-      </c>
+      <c r="K274" s="44"/>
       <c r="L274" s="55"/>
       <c r="M274" s="55"/>
       <c r="N274" s="46">
@@ -14586,9 +14048,7 @@
       <c r="J275" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K275" s="44">
-        <v>40</v>
-      </c>
+      <c r="K275" s="44"/>
       <c r="L275" s="59"/>
       <c r="M275" s="59"/>
       <c r="N275" s="46">
@@ -14632,9 +14092,7 @@
       <c r="J276" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="K276" s="44">
-        <v>40</v>
-      </c>
+      <c r="K276" s="44"/>
       <c r="L276" s="59"/>
       <c r="M276" s="59"/>
       <c r="N276" s="46">
@@ -14678,9 +14136,7 @@
       <c r="J277" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="K277" s="44">
-        <v>40</v>
-      </c>
+      <c r="K277" s="44"/>
       <c r="L277" s="59"/>
       <c r="M277" s="59"/>
       <c r="N277" s="46">
@@ -14724,9 +14180,7 @@
       <c r="J278" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="K278" s="44">
-        <v>40</v>
-      </c>
+      <c r="K278" s="44"/>
       <c r="L278" s="59"/>
       <c r="M278" s="59"/>
       <c r="N278" s="46">
@@ -14770,9 +14224,7 @@
       <c r="J279" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="K279" s="44">
-        <v>40</v>
-      </c>
+      <c r="K279" s="44"/>
       <c r="L279" s="59"/>
       <c r="M279" s="59"/>
       <c r="N279" s="46">
@@ -14816,9 +14268,7 @@
       <c r="J280" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="K280" s="44">
-        <v>40</v>
-      </c>
+      <c r="K280" s="44"/>
       <c r="L280" s="63"/>
       <c r="M280" s="63"/>
       <c r="N280" s="46">
@@ -14862,9 +14312,7 @@
       <c r="J281" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="K281" s="44">
-        <v>40</v>
-      </c>
+      <c r="K281" s="44"/>
       <c r="L281" s="63"/>
       <c r="M281" s="63"/>
       <c r="N281" s="46">
@@ -14908,9 +14356,7 @@
       <c r="J282" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="K282" s="44">
-        <v>40</v>
-      </c>
+      <c r="K282" s="44"/>
       <c r="L282" s="63"/>
       <c r="M282" s="63"/>
       <c r="N282" s="46">
@@ -14954,9 +14400,7 @@
       <c r="J283" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="K283" s="44">
-        <v>40</v>
-      </c>
+      <c r="K283" s="44"/>
       <c r="L283" s="63"/>
       <c r="M283" s="63"/>
       <c r="N283" s="46">
@@ -15000,9 +14444,7 @@
       <c r="J284" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="K284" s="44">
-        <v>40</v>
-      </c>
+      <c r="K284" s="44"/>
       <c r="L284" s="63"/>
       <c r="M284" s="63"/>
       <c r="N284" s="46">
@@ -15046,9 +14488,7 @@
       <c r="J285" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="K285" s="44">
-        <v>40</v>
-      </c>
+      <c r="K285" s="44"/>
       <c r="L285" s="45"/>
       <c r="M285" s="45"/>
       <c r="N285" s="46">
@@ -15092,9 +14532,7 @@
       <c r="J286" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="K286" s="44">
-        <v>40</v>
-      </c>
+      <c r="K286" s="44"/>
       <c r="L286" s="45"/>
       <c r="M286" s="45"/>
       <c r="N286" s="46">
@@ -15138,9 +14576,7 @@
       <c r="J287" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="K287" s="44">
-        <v>40</v>
-      </c>
+      <c r="K287" s="44"/>
       <c r="L287" s="45"/>
       <c r="M287" s="45"/>
       <c r="N287" s="46">
@@ -15184,9 +14620,7 @@
       <c r="J288" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="K288" s="44">
-        <v>40</v>
-      </c>
+      <c r="K288" s="44"/>
       <c r="L288" s="45"/>
       <c r="M288" s="45"/>
       <c r="N288" s="46">
@@ -15230,9 +14664,7 @@
       <c r="J289" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="K289" s="44">
-        <v>40</v>
-      </c>
+      <c r="K289" s="44"/>
       <c r="L289" s="45"/>
       <c r="M289" s="45"/>
       <c r="N289" s="46">
@@ -15276,9 +14708,7 @@
       <c r="J290" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="K290" s="44">
-        <v>40</v>
-      </c>
+      <c r="K290" s="44"/>
       <c r="L290" s="51"/>
       <c r="M290" s="51"/>
       <c r="N290" s="46">
@@ -15322,9 +14752,7 @@
       <c r="J291" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="K291" s="44">
-        <v>40</v>
-      </c>
+      <c r="K291" s="44"/>
       <c r="L291" s="51"/>
       <c r="M291" s="51"/>
       <c r="N291" s="46">
@@ -15368,9 +14796,7 @@
       <c r="J292" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="K292" s="44">
-        <v>40</v>
-      </c>
+      <c r="K292" s="44"/>
       <c r="L292" s="51"/>
       <c r="M292" s="51"/>
       <c r="N292" s="46">
@@ -15414,9 +14840,7 @@
       <c r="J293" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="K293" s="44">
-        <v>40</v>
-      </c>
+      <c r="K293" s="44"/>
       <c r="L293" s="51"/>
       <c r="M293" s="51"/>
       <c r="N293" s="46">
@@ -15460,9 +14884,7 @@
       <c r="J294" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="K294" s="44">
-        <v>40</v>
-      </c>
+      <c r="K294" s="44"/>
       <c r="L294" s="51"/>
       <c r="M294" s="51"/>
       <c r="N294" s="46">
@@ -15506,9 +14928,7 @@
       <c r="J295" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="K295" s="44">
-        <v>40</v>
-      </c>
+      <c r="K295" s="44"/>
       <c r="L295" s="55"/>
       <c r="M295" s="55"/>
       <c r="N295" s="46">
@@ -15552,9 +14972,7 @@
       <c r="J296" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="K296" s="44">
-        <v>40</v>
-      </c>
+      <c r="K296" s="44"/>
       <c r="L296" s="55"/>
       <c r="M296" s="55"/>
       <c r="N296" s="46">
@@ -15598,9 +15016,7 @@
       <c r="J297" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="K297" s="44">
-        <v>40</v>
-      </c>
+      <c r="K297" s="44"/>
       <c r="L297" s="55"/>
       <c r="M297" s="55"/>
       <c r="N297" s="46">
@@ -15644,9 +15060,7 @@
       <c r="J298" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="K298" s="44">
-        <v>40</v>
-      </c>
+      <c r="K298" s="44"/>
       <c r="L298" s="55"/>
       <c r="M298" s="55"/>
       <c r="N298" s="46">
@@ -15690,9 +15104,7 @@
       <c r="J299" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="K299" s="44">
-        <v>40</v>
-      </c>
+      <c r="K299" s="44"/>
       <c r="L299" s="55"/>
       <c r="M299" s="55"/>
       <c r="N299" s="46">
@@ -15736,9 +15148,7 @@
       <c r="J300" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="K300" s="44">
-        <v>40</v>
-      </c>
+      <c r="K300" s="44"/>
       <c r="L300" s="59"/>
       <c r="M300" s="59"/>
       <c r="N300" s="46">
@@ -15782,9 +15192,7 @@
       <c r="J301" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="K301" s="44">
-        <v>40</v>
-      </c>
+      <c r="K301" s="44"/>
       <c r="L301" s="59"/>
       <c r="M301" s="59"/>
       <c r="N301" s="46">
@@ -15828,9 +15236,7 @@
       <c r="J302" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="K302" s="44">
-        <v>40</v>
-      </c>
+      <c r="K302" s="44"/>
       <c r="L302" s="59"/>
       <c r="M302" s="59"/>
       <c r="N302" s="46">
@@ -15874,9 +15280,7 @@
       <c r="J303" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="K303" s="44">
-        <v>40</v>
-      </c>
+      <c r="K303" s="44"/>
       <c r="L303" s="59"/>
       <c r="M303" s="59"/>
       <c r="N303" s="46">
@@ -15920,9 +15324,7 @@
       <c r="J304" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="K304" s="44">
-        <v>40</v>
-      </c>
+      <c r="K304" s="44"/>
       <c r="L304" s="59"/>
       <c r="M304" s="59"/>
       <c r="N304" s="46">
@@ -15966,9 +15368,7 @@
       <c r="J305" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="K305" s="44">
-        <v>40</v>
-      </c>
+      <c r="K305" s="44"/>
       <c r="L305" s="63"/>
       <c r="M305" s="63"/>
       <c r="N305" s="46">
@@ -16012,9 +15412,7 @@
       <c r="J306" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="K306" s="44">
-        <v>40</v>
-      </c>
+      <c r="K306" s="44"/>
       <c r="L306" s="63"/>
       <c r="M306" s="63"/>
       <c r="N306" s="46">
@@ -16058,9 +15456,7 @@
       <c r="J307" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="K307" s="44">
-        <v>40</v>
-      </c>
+      <c r="K307" s="44"/>
       <c r="L307" s="63"/>
       <c r="M307" s="63"/>
       <c r="N307" s="46">
@@ -16104,9 +15500,7 @@
       <c r="J308" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="K308" s="44">
-        <v>40</v>
-      </c>
+      <c r="K308" s="44"/>
       <c r="L308" s="63"/>
       <c r="M308" s="63"/>
       <c r="N308" s="46">
@@ -16150,9 +15544,7 @@
       <c r="J309" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="K309" s="44">
-        <v>40</v>
-      </c>
+      <c r="K309" s="44"/>
       <c r="L309" s="63"/>
       <c r="M309" s="63"/>
       <c r="N309" s="46">
@@ -16196,9 +15588,7 @@
       <c r="J310" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="K310" s="44">
-        <v>40</v>
-      </c>
+      <c r="K310" s="44"/>
       <c r="L310" s="45"/>
       <c r="M310" s="45"/>
       <c r="N310" s="46">
@@ -16242,9 +15632,7 @@
       <c r="J311" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="K311" s="44">
-        <v>40</v>
-      </c>
+      <c r="K311" s="44"/>
       <c r="L311" s="45"/>
       <c r="M311" s="45"/>
       <c r="N311" s="46">
@@ -16288,9 +15676,7 @@
       <c r="J312" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="K312" s="44">
-        <v>40</v>
-      </c>
+      <c r="K312" s="44"/>
       <c r="L312" s="45"/>
       <c r="M312" s="45"/>
       <c r="N312" s="46">
@@ -16334,9 +15720,7 @@
       <c r="J313" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="K313" s="44">
-        <v>40</v>
-      </c>
+      <c r="K313" s="44"/>
       <c r="L313" s="45"/>
       <c r="M313" s="45"/>
       <c r="N313" s="46">
@@ -16380,9 +15764,7 @@
       <c r="J314" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="K314" s="44">
-        <v>40</v>
-      </c>
+      <c r="K314" s="44"/>
       <c r="L314" s="45"/>
       <c r="M314" s="45"/>
       <c r="N314" s="46">
@@ -16426,9 +15808,7 @@
       <c r="J315" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="K315" s="44">
-        <v>40</v>
-      </c>
+      <c r="K315" s="44"/>
       <c r="L315" s="51"/>
       <c r="M315" s="51"/>
       <c r="N315" s="46">
@@ -16472,9 +15852,7 @@
       <c r="J316" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="K316" s="44">
-        <v>40</v>
-      </c>
+      <c r="K316" s="44"/>
       <c r="L316" s="51"/>
       <c r="M316" s="51"/>
       <c r="N316" s="46">
@@ -16518,9 +15896,7 @@
       <c r="J317" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="K317" s="44">
-        <v>40</v>
-      </c>
+      <c r="K317" s="44"/>
       <c r="L317" s="51"/>
       <c r="M317" s="51"/>
       <c r="N317" s="46">
@@ -16564,9 +15940,7 @@
       <c r="J318" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="K318" s="44">
-        <v>40</v>
-      </c>
+      <c r="K318" s="44"/>
       <c r="L318" s="51"/>
       <c r="M318" s="51"/>
       <c r="N318" s="46">
@@ -16610,9 +15984,7 @@
       <c r="J319" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="K319" s="44">
-        <v>40</v>
-      </c>
+      <c r="K319" s="44"/>
       <c r="L319" s="51"/>
       <c r="M319" s="51"/>
       <c r="N319" s="46">
@@ -16656,9 +16028,7 @@
       <c r="J320" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="K320" s="44">
-        <v>40</v>
-      </c>
+      <c r="K320" s="44"/>
       <c r="L320" s="55"/>
       <c r="M320" s="55"/>
       <c r="N320" s="46">
@@ -16702,9 +16072,7 @@
       <c r="J321" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="K321" s="44">
-        <v>40</v>
-      </c>
+      <c r="K321" s="44"/>
       <c r="L321" s="55"/>
       <c r="M321" s="55"/>
       <c r="N321" s="46">
@@ -16748,9 +16116,7 @@
       <c r="J322" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="K322" s="44">
-        <v>40</v>
-      </c>
+      <c r="K322" s="44"/>
       <c r="L322" s="55"/>
       <c r="M322" s="55"/>
       <c r="N322" s="46">
@@ -16794,9 +16160,7 @@
       <c r="J323" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="K323" s="44">
-        <v>40</v>
-      </c>
+      <c r="K323" s="44"/>
       <c r="L323" s="55"/>
       <c r="M323" s="55"/>
       <c r="N323" s="46">
@@ -16840,9 +16204,7 @@
       <c r="J324" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="K324" s="44">
-        <v>40</v>
-      </c>
+      <c r="K324" s="44"/>
       <c r="L324" s="55"/>
       <c r="M324" s="55"/>
       <c r="N324" s="46">
@@ -16886,9 +16248,7 @@
       <c r="J325" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="K325" s="44">
-        <v>40</v>
-      </c>
+      <c r="K325" s="44"/>
       <c r="L325" s="59"/>
       <c r="M325" s="59"/>
       <c r="N325" s="46">
@@ -16932,9 +16292,7 @@
       <c r="J326" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="K326" s="44">
-        <v>40</v>
-      </c>
+      <c r="K326" s="44"/>
       <c r="L326" s="59"/>
       <c r="M326" s="59"/>
       <c r="N326" s="46">
@@ -16978,9 +16336,7 @@
       <c r="J327" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="K327" s="44">
-        <v>40</v>
-      </c>
+      <c r="K327" s="44"/>
       <c r="L327" s="59"/>
       <c r="M327" s="59"/>
       <c r="N327" s="46">
@@ -17024,9 +16380,7 @@
       <c r="J328" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K328" s="44">
-        <v>40</v>
-      </c>
+      <c r="K328" s="44"/>
       <c r="L328" s="59"/>
       <c r="M328" s="59"/>
       <c r="N328" s="46">
@@ -17070,9 +16424,7 @@
       <c r="J329" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K329" s="44">
-        <v>40</v>
-      </c>
+      <c r="K329" s="44"/>
       <c r="L329" s="59"/>
       <c r="M329" s="59"/>
       <c r="N329" s="46">
@@ -17116,9 +16468,7 @@
       <c r="J330" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K330" s="44">
-        <v>40</v>
-      </c>
+      <c r="K330" s="44"/>
       <c r="L330" s="63"/>
       <c r="M330" s="63"/>
       <c r="N330" s="46">
@@ -17162,9 +16512,7 @@
       <c r="J331" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K331" s="44">
-        <v>40</v>
-      </c>
+      <c r="K331" s="44"/>
       <c r="L331" s="63"/>
       <c r="M331" s="63"/>
       <c r="N331" s="46">
@@ -17208,9 +16556,7 @@
       <c r="J332" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K332" s="44">
-        <v>40</v>
-      </c>
+      <c r="K332" s="44"/>
       <c r="L332" s="63"/>
       <c r="M332" s="63"/>
       <c r="N332" s="46">
@@ -17254,9 +16600,7 @@
       <c r="J333" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="K333" s="44">
-        <v>40</v>
-      </c>
+      <c r="K333" s="44"/>
       <c r="L333" s="63"/>
       <c r="M333" s="63"/>
       <c r="N333" s="46">
@@ -17300,9 +16644,7 @@
       <c r="J334" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="K334" s="44">
-        <v>40</v>
-      </c>
+      <c r="K334" s="44"/>
       <c r="L334" s="63"/>
       <c r="M334" s="63"/>
       <c r="N334" s="46">
@@ -17346,9 +16688,7 @@
       <c r="J335" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="K335" s="44">
-        <v>40</v>
-      </c>
+      <c r="K335" s="44"/>
       <c r="L335" s="45"/>
       <c r="M335" s="45"/>
       <c r="N335" s="46">
@@ -17392,9 +16732,7 @@
       <c r="J336" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="K336" s="44">
-        <v>40</v>
-      </c>
+      <c r="K336" s="44"/>
       <c r="L336" s="45"/>
       <c r="M336" s="45"/>
       <c r="N336" s="46">
@@ -17438,9 +16776,7 @@
       <c r="J337" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="K337" s="44">
-        <v>40</v>
-      </c>
+      <c r="K337" s="44"/>
       <c r="L337" s="45"/>
       <c r="M337" s="45"/>
       <c r="N337" s="46">
@@ -17484,9 +16820,7 @@
       <c r="J338" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="K338" s="44">
-        <v>40</v>
-      </c>
+      <c r="K338" s="44"/>
       <c r="L338" s="45"/>
       <c r="M338" s="45"/>
       <c r="N338" s="46">
@@ -17530,9 +16864,7 @@
       <c r="J339" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="K339" s="44">
-        <v>40</v>
-      </c>
+      <c r="K339" s="44"/>
       <c r="L339" s="45"/>
       <c r="M339" s="45"/>
       <c r="N339" s="46">
@@ -17576,9 +16908,7 @@
       <c r="J340" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="K340" s="44">
-        <v>40</v>
-      </c>
+      <c r="K340" s="44"/>
       <c r="L340" s="51"/>
       <c r="M340" s="51"/>
       <c r="N340" s="46">
@@ -17622,9 +16952,7 @@
       <c r="J341" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="K341" s="44">
-        <v>40</v>
-      </c>
+      <c r="K341" s="44"/>
       <c r="L341" s="51"/>
       <c r="M341" s="51"/>
       <c r="N341" s="46">
@@ -17668,9 +16996,7 @@
       <c r="J342" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="K342" s="44">
-        <v>40</v>
-      </c>
+      <c r="K342" s="44"/>
       <c r="L342" s="51"/>
       <c r="M342" s="51"/>
       <c r="N342" s="46">
@@ -17714,9 +17040,7 @@
       <c r="J343" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="K343" s="44">
-        <v>40</v>
-      </c>
+      <c r="K343" s="44"/>
       <c r="L343" s="51"/>
       <c r="M343" s="51"/>
       <c r="N343" s="46">
@@ -17760,9 +17084,7 @@
       <c r="J344" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="K344" s="44">
-        <v>40</v>
-      </c>
+      <c r="K344" s="44"/>
       <c r="L344" s="51"/>
       <c r="M344" s="51"/>
       <c r="N344" s="46">
@@ -17806,9 +17128,7 @@
       <c r="J345" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="K345" s="44">
-        <v>40</v>
-      </c>
+      <c r="K345" s="44"/>
       <c r="L345" s="55"/>
       <c r="M345" s="55"/>
       <c r="N345" s="46">
@@ -17852,9 +17172,7 @@
       <c r="J346" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="K346" s="44">
-        <v>40</v>
-      </c>
+      <c r="K346" s="44"/>
       <c r="L346" s="55"/>
       <c r="M346" s="55"/>
       <c r="N346" s="46">
@@ -17898,9 +17216,7 @@
       <c r="J347" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="K347" s="44">
-        <v>40</v>
-      </c>
+      <c r="K347" s="44"/>
       <c r="L347" s="55"/>
       <c r="M347" s="55"/>
       <c r="N347" s="46">
@@ -17944,9 +17260,7 @@
       <c r="J348" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K348" s="44">
-        <v>40</v>
-      </c>
+      <c r="K348" s="44"/>
       <c r="L348" s="55"/>
       <c r="M348" s="55"/>
       <c r="N348" s="46">
@@ -17990,9 +17304,7 @@
       <c r="J349" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="K349" s="44">
-        <v>40</v>
-      </c>
+      <c r="K349" s="44"/>
       <c r="L349" s="55"/>
       <c r="M349" s="55"/>
       <c r="N349" s="46">
@@ -18036,9 +17348,7 @@
       <c r="J350" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="K350" s="44">
-        <v>40</v>
-      </c>
+      <c r="K350" s="44"/>
       <c r="L350" s="59"/>
       <c r="M350" s="59"/>
       <c r="N350" s="46">
@@ -18082,9 +17392,7 @@
       <c r="J351" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="K351" s="44">
-        <v>40</v>
-      </c>
+      <c r="K351" s="44"/>
       <c r="L351" s="59"/>
       <c r="M351" s="59"/>
       <c r="N351" s="46">
@@ -18128,9 +17436,7 @@
       <c r="J352" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="K352" s="44">
-        <v>40</v>
-      </c>
+      <c r="K352" s="44"/>
       <c r="L352" s="59"/>
       <c r="M352" s="59"/>
       <c r="N352" s="46">
@@ -18174,9 +17480,7 @@
       <c r="J353" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="K353" s="44">
-        <v>40</v>
-      </c>
+      <c r="K353" s="44"/>
       <c r="L353" s="59"/>
       <c r="M353" s="59"/>
       <c r="N353" s="46">
@@ -18220,9 +17524,7 @@
       <c r="J354" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="K354" s="44">
-        <v>40</v>
-      </c>
+      <c r="K354" s="44"/>
       <c r="L354" s="59"/>
       <c r="M354" s="59"/>
       <c r="N354" s="46">
@@ -18266,9 +17568,7 @@
       <c r="J355" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="K355" s="44">
-        <v>40</v>
-      </c>
+      <c r="K355" s="44"/>
       <c r="L355" s="63"/>
       <c r="M355" s="63"/>
       <c r="N355" s="46">
@@ -18312,9 +17612,7 @@
       <c r="J356" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="K356" s="44">
-        <v>40</v>
-      </c>
+      <c r="K356" s="44"/>
       <c r="L356" s="63"/>
       <c r="M356" s="63"/>
       <c r="N356" s="46">
@@ -18358,9 +17656,7 @@
       <c r="J357" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="K357" s="44">
-        <v>40</v>
-      </c>
+      <c r="K357" s="44"/>
       <c r="L357" s="63"/>
       <c r="M357" s="63"/>
       <c r="N357" s="46">
@@ -18404,9 +17700,7 @@
       <c r="J358" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="K358" s="44">
-        <v>40</v>
-      </c>
+      <c r="K358" s="44"/>
       <c r="L358" s="63"/>
       <c r="M358" s="63"/>
       <c r="N358" s="46">
@@ -18450,9 +17744,7 @@
       <c r="J359" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="K359" s="44">
-        <v>40</v>
-      </c>
+      <c r="K359" s="44"/>
       <c r="L359" s="63"/>
       <c r="M359" s="63"/>
       <c r="N359" s="46">
@@ -18496,9 +17788,7 @@
       <c r="J360" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K360" s="44">
-        <v>40</v>
-      </c>
+      <c r="K360" s="44"/>
       <c r="L360" s="45"/>
       <c r="M360" s="45"/>
       <c r="N360" s="46">
@@ -18542,9 +17832,7 @@
       <c r="J361" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K361" s="44">
-        <v>40</v>
-      </c>
+      <c r="K361" s="44"/>
       <c r="L361" s="45"/>
       <c r="M361" s="45"/>
       <c r="N361" s="46">
@@ -18588,9 +17876,7 @@
       <c r="J362" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K362" s="44">
-        <v>40</v>
-      </c>
+      <c r="K362" s="44"/>
       <c r="L362" s="45"/>
       <c r="M362" s="45"/>
       <c r="N362" s="46">
@@ -18634,9 +17920,7 @@
       <c r="J363" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K363" s="44">
-        <v>40</v>
-      </c>
+      <c r="K363" s="44"/>
       <c r="L363" s="45"/>
       <c r="M363" s="45"/>
       <c r="N363" s="46">
@@ -18680,9 +17964,7 @@
       <c r="J364" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K364" s="44">
-        <v>40</v>
-      </c>
+      <c r="K364" s="44"/>
       <c r="L364" s="45"/>
       <c r="M364" s="45"/>
       <c r="N364" s="46">
@@ -18726,9 +18008,7 @@
       <c r="J365" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="K365" s="44">
-        <v>40</v>
-      </c>
+      <c r="K365" s="44"/>
       <c r="L365" s="51"/>
       <c r="M365" s="51"/>
       <c r="N365" s="46">
@@ -18772,9 +18052,7 @@
       <c r="J366" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="K366" s="44">
-        <v>40</v>
-      </c>
+      <c r="K366" s="44"/>
       <c r="L366" s="51"/>
       <c r="M366" s="51"/>
       <c r="N366" s="46">
@@ -18818,9 +18096,7 @@
       <c r="J367" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="K367" s="44">
-        <v>40</v>
-      </c>
+      <c r="K367" s="44"/>
       <c r="L367" s="51"/>
       <c r="M367" s="51"/>
       <c r="N367" s="46">
@@ -18864,9 +18140,7 @@
       <c r="J368" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="K368" s="44">
-        <v>40</v>
-      </c>
+      <c r="K368" s="44"/>
       <c r="L368" s="51"/>
       <c r="M368" s="51"/>
       <c r="N368" s="46">
@@ -18910,9 +18184,7 @@
       <c r="J369" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="K369" s="44">
-        <v>40</v>
-      </c>
+      <c r="K369" s="44"/>
       <c r="L369" s="51"/>
       <c r="M369" s="51"/>
       <c r="N369" s="46">
@@ -18956,9 +18228,7 @@
       <c r="J370" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="K370" s="44">
-        <v>40</v>
-      </c>
+      <c r="K370" s="44"/>
       <c r="L370" s="55"/>
       <c r="M370" s="55"/>
       <c r="N370" s="46">
@@ -19002,9 +18272,7 @@
       <c r="J371" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="K371" s="44">
-        <v>40</v>
-      </c>
+      <c r="K371" s="44"/>
       <c r="L371" s="55"/>
       <c r="M371" s="55"/>
       <c r="N371" s="46">
@@ -19048,9 +18316,7 @@
       <c r="J372" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="K372" s="44">
-        <v>40</v>
-      </c>
+      <c r="K372" s="44"/>
       <c r="L372" s="55"/>
       <c r="M372" s="55"/>
       <c r="N372" s="46">
@@ -19094,9 +18360,7 @@
       <c r="J373" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="K373" s="44">
-        <v>40</v>
-      </c>
+      <c r="K373" s="44"/>
       <c r="L373" s="55"/>
       <c r="M373" s="55"/>
       <c r="N373" s="46">
@@ -19140,9 +18404,7 @@
       <c r="J374" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="K374" s="44">
-        <v>40</v>
-      </c>
+      <c r="K374" s="44"/>
       <c r="L374" s="55"/>
       <c r="M374" s="55"/>
       <c r="N374" s="46">
@@ -19186,9 +18448,7 @@
       <c r="J375" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="K375" s="44">
-        <v>40</v>
-      </c>
+      <c r="K375" s="44"/>
       <c r="L375" s="59"/>
       <c r="M375" s="59"/>
       <c r="N375" s="46">
@@ -19232,9 +18492,7 @@
       <c r="J376" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="K376" s="44">
-        <v>40</v>
-      </c>
+      <c r="K376" s="44"/>
       <c r="L376" s="59"/>
       <c r="M376" s="59"/>
       <c r="N376" s="46">
@@ -19278,9 +18536,7 @@
       <c r="J377" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="K377" s="44">
-        <v>40</v>
-      </c>
+      <c r="K377" s="44"/>
       <c r="L377" s="59"/>
       <c r="M377" s="59"/>
       <c r="N377" s="46">
@@ -19324,9 +18580,7 @@
       <c r="J378" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="K378" s="44">
-        <v>40</v>
-      </c>
+      <c r="K378" s="44"/>
       <c r="L378" s="59"/>
       <c r="M378" s="59"/>
       <c r="N378" s="46">
@@ -19370,9 +18624,7 @@
       <c r="J379" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="K379" s="44">
-        <v>40</v>
-      </c>
+      <c r="K379" s="44"/>
       <c r="L379" s="59"/>
       <c r="M379" s="59"/>
       <c r="N379" s="46">
@@ -19416,9 +18668,7 @@
       <c r="J380" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K380" s="44">
-        <v>40</v>
-      </c>
+      <c r="K380" s="44"/>
       <c r="L380" s="63"/>
       <c r="M380" s="63"/>
       <c r="N380" s="46">
@@ -19462,9 +18712,7 @@
       <c r="J381" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K381" s="44">
-        <v>40</v>
-      </c>
+      <c r="K381" s="44"/>
       <c r="L381" s="63"/>
       <c r="M381" s="63"/>
       <c r="N381" s="46">
@@ -19508,9 +18756,7 @@
       <c r="J382" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K382" s="44">
-        <v>40</v>
-      </c>
+      <c r="K382" s="44"/>
       <c r="L382" s="63"/>
       <c r="M382" s="63"/>
       <c r="N382" s="46">
@@ -19554,9 +18800,7 @@
       <c r="J383" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="K383" s="44">
-        <v>40</v>
-      </c>
+      <c r="K383" s="44"/>
       <c r="L383" s="63"/>
       <c r="M383" s="63"/>
       <c r="N383" s="46">
@@ -19600,9 +18844,7 @@
       <c r="J384" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="K384" s="44">
-        <v>40</v>
-      </c>
+      <c r="K384" s="44"/>
       <c r="L384" s="63"/>
       <c r="M384" s="63"/>
       <c r="N384" s="46">
@@ -19646,9 +18888,7 @@
       <c r="J385" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="K385" s="44">
-        <v>40</v>
-      </c>
+      <c r="K385" s="44"/>
       <c r="L385" s="45"/>
       <c r="M385" s="45"/>
       <c r="N385" s="46">
@@ -19692,9 +18932,7 @@
       <c r="J386" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="K386" s="44">
-        <v>40</v>
-      </c>
+      <c r="K386" s="44"/>
       <c r="L386" s="45"/>
       <c r="M386" s="45"/>
       <c r="N386" s="46">
@@ -19738,9 +18976,7 @@
       <c r="J387" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="K387" s="44">
-        <v>40</v>
-      </c>
+      <c r="K387" s="44"/>
       <c r="L387" s="45"/>
       <c r="M387" s="45"/>
       <c r="N387" s="46">
@@ -19784,9 +19020,7 @@
       <c r="J388" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="K388" s="44">
-        <v>40</v>
-      </c>
+      <c r="K388" s="44"/>
       <c r="L388" s="45"/>
       <c r="M388" s="45"/>
       <c r="N388" s="46">
@@ -19830,9 +19064,7 @@
       <c r="J389" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="K389" s="44">
-        <v>40</v>
-      </c>
+      <c r="K389" s="44"/>
       <c r="L389" s="45"/>
       <c r="M389" s="45"/>
       <c r="N389" s="46">
@@ -19876,9 +19108,7 @@
       <c r="J390" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="K390" s="44">
-        <v>40</v>
-      </c>
+      <c r="K390" s="44"/>
       <c r="L390" s="51"/>
       <c r="M390" s="51"/>
       <c r="N390" s="46">
@@ -19922,9 +19152,7 @@
       <c r="J391" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="K391" s="44">
-        <v>40</v>
-      </c>
+      <c r="K391" s="44"/>
       <c r="L391" s="51"/>
       <c r="M391" s="51"/>
       <c r="N391" s="46">
@@ -19968,9 +19196,7 @@
       <c r="J392" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="K392" s="44">
-        <v>40</v>
-      </c>
+      <c r="K392" s="44"/>
       <c r="L392" s="51"/>
       <c r="M392" s="51"/>
       <c r="N392" s="46">
@@ -20014,9 +19240,7 @@
       <c r="J393" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="K393" s="44">
-        <v>40</v>
-      </c>
+      <c r="K393" s="44"/>
       <c r="L393" s="51"/>
       <c r="M393" s="51"/>
       <c r="N393" s="46">
@@ -20060,9 +19284,7 @@
       <c r="J394" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="K394" s="44">
-        <v>40</v>
-      </c>
+      <c r="K394" s="44"/>
       <c r="L394" s="51"/>
       <c r="M394" s="51"/>
       <c r="N394" s="46">
@@ -20106,9 +19328,7 @@
       <c r="J395" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="K395" s="44">
-        <v>40</v>
-      </c>
+      <c r="K395" s="44"/>
       <c r="L395" s="55"/>
       <c r="M395" s="55"/>
       <c r="N395" s="46">
@@ -20152,9 +19372,7 @@
       <c r="J396" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="K396" s="44">
-        <v>40</v>
-      </c>
+      <c r="K396" s="44"/>
       <c r="L396" s="55"/>
       <c r="M396" s="55"/>
       <c r="N396" s="46">
@@ -20198,9 +19416,7 @@
       <c r="J397" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="K397" s="44">
-        <v>40</v>
-      </c>
+      <c r="K397" s="44"/>
       <c r="L397" s="55"/>
       <c r="M397" s="55"/>
       <c r="N397" s="46">
@@ -20244,9 +19460,7 @@
       <c r="J398" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="K398" s="44">
-        <v>40</v>
-      </c>
+      <c r="K398" s="44"/>
       <c r="L398" s="55"/>
       <c r="M398" s="55"/>
       <c r="N398" s="46">
@@ -20290,9 +19504,7 @@
       <c r="J399" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K399" s="44">
-        <v>40</v>
-      </c>
+      <c r="K399" s="44"/>
       <c r="L399" s="55"/>
       <c r="M399" s="55"/>
       <c r="N399" s="46">
@@ -20336,9 +19548,7 @@
       <c r="J400" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="K400" s="44">
-        <v>40</v>
-      </c>
+      <c r="K400" s="44"/>
       <c r="L400" s="59"/>
       <c r="M400" s="59"/>
       <c r="N400" s="46">
@@ -20382,9 +19592,7 @@
       <c r="J401" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="K401" s="44">
-        <v>40</v>
-      </c>
+      <c r="K401" s="44"/>
       <c r="L401" s="59"/>
       <c r="M401" s="59"/>
       <c r="N401" s="46">
@@ -20428,9 +19636,7 @@
       <c r="J402" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="K402" s="44">
-        <v>40</v>
-      </c>
+      <c r="K402" s="44"/>
       <c r="L402" s="59"/>
       <c r="M402" s="59"/>
       <c r="N402" s="46">
@@ -20474,9 +19680,7 @@
       <c r="J403" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="K403" s="44">
-        <v>40</v>
-      </c>
+      <c r="K403" s="44"/>
       <c r="L403" s="59"/>
       <c r="M403" s="59"/>
       <c r="N403" s="46">
@@ -20520,9 +19724,7 @@
       <c r="J404" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="K404" s="44">
-        <v>40</v>
-      </c>
+      <c r="K404" s="44"/>
       <c r="L404" s="59"/>
       <c r="M404" s="59"/>
       <c r="N404" s="46">
@@ -20566,9 +19768,7 @@
       <c r="J405" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="K405" s="44">
-        <v>40</v>
-      </c>
+      <c r="K405" s="44"/>
       <c r="L405" s="63"/>
       <c r="M405" s="63"/>
       <c r="N405" s="46">
@@ -20612,9 +19812,7 @@
       <c r="J406" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="K406" s="44">
-        <v>40</v>
-      </c>
+      <c r="K406" s="44"/>
       <c r="L406" s="63"/>
       <c r="M406" s="63"/>
       <c r="N406" s="46">
@@ -20658,9 +19856,7 @@
       <c r="J407" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="K407" s="44">
-        <v>40</v>
-      </c>
+      <c r="K407" s="44"/>
       <c r="L407" s="63"/>
       <c r="M407" s="63"/>
       <c r="N407" s="46">
@@ -20704,9 +19900,7 @@
       <c r="J408" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="K408" s="44">
-        <v>40</v>
-      </c>
+      <c r="K408" s="44"/>
       <c r="L408" s="63"/>
       <c r="M408" s="63"/>
       <c r="N408" s="46">
@@ -20750,9 +19944,7 @@
       <c r="J409" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K409" s="44">
-        <v>40</v>
-      </c>
+      <c r="K409" s="44"/>
       <c r="L409" s="63"/>
       <c r="M409" s="63"/>
       <c r="N409" s="46">
@@ -20796,9 +19988,7 @@
       <c r="J410" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="K410" s="44">
-        <v>40</v>
-      </c>
+      <c r="K410" s="44"/>
       <c r="L410" s="55"/>
       <c r="M410" s="55"/>
       <c r="N410" s="46">
@@ -20842,9 +20032,7 @@
       <c r="J411" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="K411" s="44">
-        <v>40</v>
-      </c>
+      <c r="K411" s="44"/>
       <c r="L411" s="55"/>
       <c r="M411" s="55"/>
       <c r="N411" s="46">
@@ -20888,9 +20076,7 @@
       <c r="J412" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="K412" s="44">
-        <v>40</v>
-      </c>
+      <c r="K412" s="44"/>
       <c r="L412" s="55"/>
       <c r="M412" s="55"/>
       <c r="N412" s="46">
@@ -20934,9 +20120,7 @@
       <c r="J413" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="K413" s="44">
-        <v>40</v>
-      </c>
+      <c r="K413" s="44"/>
       <c r="L413" s="55"/>
       <c r="M413" s="55"/>
       <c r="N413" s="46">
@@ -20980,9 +20164,7 @@
       <c r="J414" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="K414" s="44">
-        <v>40</v>
-      </c>
+      <c r="K414" s="44"/>
       <c r="L414" s="55"/>
       <c r="M414" s="55"/>
       <c r="N414" s="46">
@@ -21026,9 +20208,7 @@
       <c r="J415" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="K415" s="44">
-        <v>40</v>
-      </c>
+      <c r="K415" s="44"/>
       <c r="L415" s="55"/>
       <c r="M415" s="55"/>
       <c r="N415" s="46">
@@ -21072,9 +20252,7 @@
       <c r="J416" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="K416" s="44">
-        <v>40</v>
-      </c>
+      <c r="K416" s="44"/>
       <c r="L416" s="55"/>
       <c r="M416" s="55"/>
       <c r="N416" s="46">
@@ -21118,9 +20296,7 @@
       <c r="J417" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="K417" s="44">
-        <v>40</v>
-      </c>
+      <c r="K417" s="44"/>
       <c r="L417" s="55"/>
       <c r="M417" s="55"/>
       <c r="N417" s="46">
@@ -21164,9 +20340,7 @@
       <c r="J418" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="K418" s="44">
-        <v>40</v>
-      </c>
+      <c r="K418" s="44"/>
       <c r="L418" s="55"/>
       <c r="M418" s="55"/>
       <c r="N418" s="46">
@@ -21210,9 +20384,7 @@
       <c r="J419" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="K419" s="44">
-        <v>40</v>
-      </c>
+      <c r="K419" s="44"/>
       <c r="L419" s="45"/>
       <c r="M419" s="45"/>
       <c r="N419" s="46">
@@ -21256,9 +20428,7 @@
       <c r="J420" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="K420" s="44">
-        <v>40</v>
-      </c>
+      <c r="K420" s="44"/>
       <c r="L420" s="55"/>
       <c r="M420" s="55"/>
       <c r="N420" s="46">
@@ -22565,15 +21735,6 @@
   </sheetData>
   <autoFilter ref="B2:U420" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -22586,6 +21747,15 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
